--- a/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
+++ b/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\System\modal\prepackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26C77C-B41E-46B3-A4A5-509F2B8A80F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEF1368-42B1-429A-B4AF-67EEEF3FBE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-10215" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="209">
   <si>
     <t>各モーダル選択フォーム仕様書</t>
   </si>
@@ -956,6 +956,632 @@
   </si>
   <si>
     <t>09_25_寸法項目リスト.tbx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05_03_作業コードリスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日報作業名と　コード</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_26_校了責了リスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>校了　責了</t>
+    <rPh sb="0" eb="2">
+      <t>コウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セキリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>020_02_筋入れリスト</t>
+  </si>
+  <si>
+    <t>仕上項目tbxの　スジ入れ　に格納しました。
+このファイルは重複のため削除します。</t>
+    <rPh sb="0" eb="2">
+      <t>シアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スジ入れ</t>
+  </si>
+  <si>
+    <t>09_27_抜刷リスト</t>
+  </si>
+  <si>
+    <t>種一部</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イチブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_28_表紙共紙</t>
+  </si>
+  <si>
+    <t>表紙共紙　のテンプレート</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トモガミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背文字　印刷無し　などのテンプレート</t>
+    <rPh sb="0" eb="3">
+      <t>セモジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_29_印刷箇所</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>透明・マット・窓あきなど　PPに関するテンプレート</t>
+    <rPh sb="0" eb="2">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_30_PP加工リスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>箱おしに関する入力テンプレ</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_31_泊おし</t>
+  </si>
+  <si>
+    <t>空おし入力テンプレ</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_32_空おし</t>
+  </si>
+  <si>
+    <t>見返し用紙のテンプレ</t>
+    <rPh sb="0" eb="2">
+      <t>ミカエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_33_見返し用紙リスト</t>
+  </si>
+  <si>
+    <t>扉</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>020_10_扉印刷リスト</t>
+  </si>
+  <si>
+    <t>扉印刷する際の指定テンプレ
+表裏のリストに格納します</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成のプルダウンを選択しやすい様にします</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_34_構成リスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_13_表裏リスト</t>
+  </si>
+  <si>
+    <t>020_12_構成単位.tbx</t>
+  </si>
+  <si>
+    <t>020_13_構成印刷面</t>
+  </si>
+  <si>
+    <t>09_09_単位タイプリスト</t>
+  </si>
+  <si>
+    <t>構成-枚葉</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成-冊子</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成-新聞</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成-複写</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フクシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┗</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>020_14_構成用紙</t>
+  </si>
+  <si>
+    <t>09_15_銘柄項目リスト</t>
+  </si>
+  <si>
+    <t>01_02_ありなし選択</t>
+  </si>
+  <si>
+    <t>はい/いいえ系をまとめた。</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ありなし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字ありなし</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字なしのみ</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あり（冊）</t>
+    <rPh sb="3" eb="4">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あり・（）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はいいいえ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_35_綴じ位置</t>
+  </si>
+  <si>
+    <t>製本綴じ方の選択肢</t>
+    <rPh sb="0" eb="2">
+      <t>セイホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_36_製本内容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製本方法プルダウン</t>
+    <rPh sb="0" eb="2">
+      <t>セイホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_37_綴じ用リスト</t>
+  </si>
+  <si>
+    <t>09_38_しおり</t>
+  </si>
+  <si>
+    <t>09_39_花ぎれ</t>
+  </si>
+  <si>
+    <t>09_40_ミシン</t>
+  </si>
+  <si>
+    <t>09_41_校正部数</t>
+  </si>
+  <si>
+    <t>09_42_新聞印刷</t>
+  </si>
+  <si>
+    <t>09_43_新聞加工</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_44_複写紙質</t>
+  </si>
+  <si>
+    <t>09_45_項目</t>
+  </si>
+  <si>
+    <t>なんのプルダウンかわからないので後で調べる</t>
+    <rPh sb="16" eb="17">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>040_03_見出し</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>040_04_番号入れ</t>
+  </si>
+  <si>
+    <t>09_47_手配情報</t>
+  </si>
+  <si>
+    <t>09_46_外注内容</t>
+  </si>
+  <si>
+    <t>全外かどうかとか</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手配済みかどうか</t>
+    <rPh sb="0" eb="3">
+      <t>テハイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_48_営業外注先</t>
+  </si>
+  <si>
+    <t>営業さんが全外手配するリスト</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_03_封筒関連仕様</t>
+  </si>
+  <si>
+    <t>封筒の基本プルダウンに関するリスト</t>
+    <rPh sb="0" eb="2">
+      <t>フウトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重さ</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〒枠</t>
+    <rPh sb="1" eb="2">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貼り</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>封筒名</t>
+    <rPh sb="0" eb="3">
+      <t>フウトウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>封筒補足</t>
+    <rPh sb="0" eb="2">
+      <t>フウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_04_封筒関連仕様_サイズ</t>
+  </si>
+  <si>
+    <t>封筒のサイズに関するプルダウン</t>
+    <rPh sb="0" eb="2">
+      <t>フウトウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_05_封筒関連仕様_封筒名</t>
+  </si>
+  <si>
+    <t>02_06_封筒関連仕様_用紙補足</t>
+  </si>
+  <si>
+    <t>02_07_外注備考用文言</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06_03_製品保管場所</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05_04_作業項目設定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷項目を含む作業項目。使用用途不明</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>シヨウヨウト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品の保管場所</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ホカンバショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注の補足</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷用サイズ</t>
+    <rPh sb="0" eb="3">
+      <t>インサツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>07_03_印刷用色設定</t>
+  </si>
+  <si>
+    <t>4+4とか色の設定</t>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01_03_数字順</t>
+  </si>
+  <si>
+    <t>1，2，3，…　と数字を記載する</t>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -963,7 +1589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,6 +1639,33 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1055,7 +1708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1068,6 +1721,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1356,18 +2016,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
@@ -1532,31 +2192,33 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+    <row r="14" spans="1:10" s="9" customFormat="1">
+      <c r="C14" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10">
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1566,28 +2228,30 @@
     </row>
     <row r="16" spans="1:10">
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1599,7 +2263,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1611,7 +2275,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1623,7 +2287,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1635,7 +2299,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1647,60 +2311,60 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="3:10">
-      <c r="C23" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="3:10">
-      <c r="C25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+    <row r="25" spans="3:10" s="9" customFormat="1">
+      <c r="C25" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="3:10">
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1710,11 +2374,11 @@
     </row>
     <row r="27" spans="3:10">
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1724,11 +2388,11 @@
     </row>
     <row r="28" spans="3:10">
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1738,11 +2402,11 @@
     </row>
     <row r="29" spans="3:10">
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1752,11 +2416,11 @@
     </row>
     <row r="30" spans="3:10">
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1766,40 +2430,44 @@
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="3:10">
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="3:10">
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1811,75 +2479,75 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="3:10">
-      <c r="C35" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="3:10">
-      <c r="C36" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="3:10">
       <c r="C37" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="3:10">
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="3:10">
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1891,126 +2559,126 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="3:10">
-      <c r="C41" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="3:10">
-      <c r="C42" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="3:10">
       <c r="C43" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="3:10">
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="3:10">
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="4"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="3:10">
-      <c r="C46" s="2" t="s">
-        <v>75</v>
+      <c r="C46" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="3:10">
-      <c r="C47" s="2" t="s">
-        <v>77</v>
+      <c r="C47" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="D47" s="2"/>
-      <c r="E47" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="E47" s="4"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="3:10">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+    <row r="48" spans="3:10" s="9" customFormat="1">
+      <c r="C48" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49" spans="3:10">
       <c r="C49" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2020,11 +2688,11 @@
     </row>
     <row r="50" spans="3:10">
       <c r="C50" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2047,66 +2715,66 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="3:10">
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="3:10">
       <c r="C53" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="3:10">
-      <c r="C54" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="3:10">
-      <c r="C55" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="3:10">
       <c r="C56" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2114,132 +2782,134 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="3:10" ht="24.75">
-      <c r="C57" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>95</v>
+    <row r="57" spans="3:10">
+      <c r="C57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="3:10">
-      <c r="C58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="3:10" ht="24.75">
-      <c r="C59" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>97</v>
+    <row r="59" spans="3:10">
+      <c r="C59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="3:10">
-      <c r="C60" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="4" t="s">
-        <v>100</v>
+    <row r="60" spans="3:10" ht="24.75">
+      <c r="C60" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="3:10">
-      <c r="C61" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="E61" s="5"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="3:10">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="4"/>
+    <row r="62" spans="3:10" ht="24.75">
+      <c r="C62" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="3:10">
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="3:10">
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="3:10">
-      <c r="C65" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="E65" s="4"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -2251,71 +2921,73 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="3:10">
-      <c r="C67" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="E67" s="4"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="3:10">
       <c r="C68" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="3:10">
-      <c r="C69" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="E69" s="4"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="3:10">
-      <c r="C70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D70" s="2"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="3:10">
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="D71" s="2"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -2323,12 +2995,18 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="3:10">
-      <c r="C72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="H72" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
@@ -2338,14 +3016,20 @@
       <c r="E73" s="4"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="3:10">
-      <c r="C74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="D74" s="2"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -2353,29 +3037,45 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="3:10">
-      <c r="C75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="D75" s="2"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="3:10">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="4"/>
+    <row r="76" spans="3:10" ht="24.75">
+      <c r="C76" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="H76" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="3:10">
-      <c r="C77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -2383,9 +3083,13 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="3:10">
-      <c r="C78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D78" s="2"/>
-      <c r="E78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2393,9 +3097,13 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="3:10">
-      <c r="C79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D79" s="2"/>
-      <c r="E79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -2403,9 +3111,13 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="3:10">
-      <c r="C80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="D80" s="2"/>
-      <c r="E80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2413,9 +3125,13 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="3:10">
-      <c r="C81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D81" s="2"/>
-      <c r="E81" s="4"/>
+      <c r="E81" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -2423,9 +3139,13 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="3:10">
-      <c r="C82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -2433,29 +3153,45 @@
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="3:10">
-      <c r="C83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="3:10">
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="4"/>
+    <row r="84" spans="3:10" ht="24.75">
+      <c r="C84" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="H84" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="3:10">
-      <c r="C85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D85" s="2"/>
-      <c r="E85" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -2463,129 +3199,205 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="3:10">
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="C86" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="H86" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="3:10">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="C87" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E87" s="4"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="H87" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="3:10">
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="C88" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="H88" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="3:10">
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="C89" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E89" s="4"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="H89" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="3:10">
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="C90" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="H90" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="3:10">
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="C91" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E91" s="4"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="H91" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="3:10">
-      <c r="C92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="D92" s="2"/>
-      <c r="E92" s="4"/>
+      <c r="E92" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="H92" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="3:10">
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="C93" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E93" s="4"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="H93" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="3:10">
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="C94" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="H94" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="3:10">
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="C95" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E95" s="4"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
+      <c r="H95" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="3:10">
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="C96" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E96" s="4"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
+      <c r="H96" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="3:10">
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="C97" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E97" s="4"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="H97" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="3:10">
-      <c r="C98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="D98" s="2"/>
-      <c r="E98" s="4"/>
+      <c r="E98" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -2593,9 +3405,13 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="3:10">
-      <c r="C99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="D99" s="2"/>
-      <c r="E99" s="4"/>
+      <c r="E99" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -2603,27 +3419,37 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="3:10">
-      <c r="C100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="D100" s="2"/>
       <c r="E100" s="4"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="H100" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="3:10">
-      <c r="C101" s="2"/>
+      <c r="C101" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="D101" s="2"/>
       <c r="E101" s="4"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="H101" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="3:10">
-      <c r="C102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="D102" s="2"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
@@ -2633,7 +3459,9 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="3:10">
-      <c r="C103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="D103" s="2"/>
       <c r="E103" s="4"/>
       <c r="F103" s="2"/>
@@ -2643,7 +3471,9 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="3:10">
-      <c r="C104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="D104" s="2"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
@@ -2653,7 +3483,9 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="3:10">
-      <c r="C105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D105" s="2"/>
       <c r="E105" s="4"/>
       <c r="F105" s="2"/>
@@ -2663,7 +3495,9 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="3:10">
-      <c r="C106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="D106" s="2"/>
       <c r="E106" s="4"/>
       <c r="F106" s="2"/>
@@ -2673,27 +3507,37 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="3:10">
-      <c r="C107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="D107" s="2"/>
       <c r="E107" s="4"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+      <c r="H107" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="3:10">
-      <c r="C108" s="2"/>
+      <c r="C108" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="D108" s="2"/>
       <c r="E108" s="4"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
+      <c r="H108" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="3:10">
-      <c r="C109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="D109" s="2"/>
       <c r="E109" s="4"/>
       <c r="F109" s="2"/>
@@ -2703,7 +3547,9 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="3:10">
-      <c r="C110" s="2"/>
+      <c r="C110" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="D110" s="2"/>
       <c r="E110" s="4"/>
       <c r="F110" s="2"/>
@@ -2713,9 +3559,13 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="3:10">
-      <c r="C111" s="2"/>
+      <c r="C111" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="4"/>
+      <c r="E111" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -2723,9 +3573,13 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="3:10">
-      <c r="C112" s="2"/>
+      <c r="C112" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="4"/>
+      <c r="E112" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
@@ -2733,9 +3587,13 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="3:10">
-      <c r="C113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="4"/>
+      <c r="E113" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -2743,9 +3601,13 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="3:10">
-      <c r="C114" s="2"/>
+      <c r="C114" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="4"/>
+      <c r="E114" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -2753,9 +3615,13 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="3:10">
-      <c r="C115" s="2"/>
+      <c r="C115" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="D115" s="2"/>
-      <c r="E115" s="4"/>
+      <c r="E115" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -2763,9 +3629,13 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="3:10">
-      <c r="C116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="D116" s="2"/>
-      <c r="E116" s="4"/>
+      <c r="E116" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -2773,79 +3643,113 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="3:10">
-      <c r="C117" s="2"/>
+      <c r="C117" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="D117" s="2"/>
-      <c r="E117" s="4"/>
+      <c r="E117" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
+      <c r="H117" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="3:10">
-      <c r="C118" s="2"/>
+      <c r="C118" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="D118" s="2"/>
       <c r="E118" s="4"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
+      <c r="H118" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="3:10">
-      <c r="C119" s="2"/>
+      <c r="C119" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="D119" s="2"/>
       <c r="E119" s="4"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
+      <c r="H119" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="3:10">
-      <c r="C120" s="2"/>
+      <c r="C120" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="D120" s="2"/>
       <c r="E120" s="4"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
+      <c r="H120" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="3:10">
-      <c r="C121" s="2"/>
+      <c r="C121" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="D121" s="2"/>
       <c r="E121" s="4"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
+      <c r="H121" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="3:10">
-      <c r="C122" s="2"/>
+      <c r="C122" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="D122" s="2"/>
       <c r="E122" s="4"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
+      <c r="H122" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="3:10">
-      <c r="C123" s="2"/>
+      <c r="C123" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="D123" s="2"/>
       <c r="E123" s="4"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="H123" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="3:10">
-      <c r="C124" s="2"/>
+      <c r="C124" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D124" s="2"/>
-      <c r="E124" s="4"/>
+      <c r="E124" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
@@ -2853,7 +3757,9 @@
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="3:10">
-      <c r="C125" s="2"/>
+      <c r="C125" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="D125" s="2"/>
       <c r="E125" s="4"/>
       <c r="F125" s="2"/>
@@ -2863,7 +3769,9 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="3:10">
-      <c r="C126" s="2"/>
+      <c r="C126" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="D126" s="2"/>
       <c r="E126" s="4"/>
       <c r="F126" s="2"/>
@@ -2873,9 +3781,13 @@
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="3:10">
-      <c r="C127" s="2"/>
+      <c r="C127" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="4"/>
+      <c r="E127" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -2883,9 +3795,13 @@
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="3:10">
-      <c r="C128" s="2"/>
+      <c r="C128" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="4"/>
+      <c r="E128" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -2893,9 +3809,13 @@
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="3:10">
-      <c r="C129" s="2"/>
+      <c r="C129" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="D129" s="2"/>
-      <c r="E129" s="4"/>
+      <c r="E129" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -2903,9 +3823,13 @@
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="3:10">
-      <c r="C130" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D130" s="2"/>
-      <c r="E130" s="4"/>
+      <c r="E130" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
@@ -2913,9 +3837,13 @@
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="3:10">
-      <c r="C131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="D131" s="2"/>
-      <c r="E131" s="4"/>
+      <c r="E131" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
@@ -3802,9 +4730,29 @@
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
     </row>
+    <row r="220" spans="3:10">
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+    </row>
+    <row r="221" spans="3:10">
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="H6:H219">
+  <conditionalFormatting sqref="H6:H221">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>

--- a/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
+++ b/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\System\modal\prepackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEF1368-42B1-429A-B4AF-67EEEF3FBE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F19FE4A-E0D4-4C22-A47E-959FA4D5ECDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-10215" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
+    <sheet name="モーダルフォーム仕様" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="225">
   <si>
     <t>各モーダル選択フォーム仕様書</t>
   </si>
@@ -147,9 +148,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>02_02_外注作業コード</t>
-  </si>
-  <si>
     <t>外注作業コード</t>
     <rPh sb="0" eb="2">
       <t>ガイチュウ</t>
@@ -189,9 +187,6 @@
       <t>カクノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>03_03_営業リスト</t>
   </si>
   <si>
     <t>営業コードのためのテーブル
@@ -1581,6 +1576,98 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アウトプットサンプル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>午後</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_01_外注取引先リスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シモダ支店塚本</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_02_外注作業コード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03_01_社員情報【N】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03_01_社員情報【S】</t>
+  </si>
+  <si>
+    <t>大和地洋</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>藤本部長</t>
+    <rPh sb="0" eb="2">
+      <t>フジモト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03_03_営業リスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04_01_用紙サイズリスト「印刷用サイズ」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04_01_用紙サイズリスト「基本」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ａ２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>菊半</t>
+    <rPh sb="0" eb="2">
+      <t>キクハン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1708,7 +1795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1722,17 +1809,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1751,6 +1857,1585 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97117B15-4597-4210-D901-C22CFC50F4C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3152775" y="495300"/>
+          <a:ext cx="4105275" cy="5743575"/>
+          <a:chOff x="3152775" y="495300"/>
+          <a:chExt cx="4105275" cy="5743575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C004F9C-AF69-E853-D5C0-0CD5908EFB94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3152775" y="495300"/>
+            <a:ext cx="4105275" cy="5743575"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1586"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7F79D3-1BD4-497E-A97B-CDF8C87DEE14}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5962649" y="581025"/>
+            <a:ext cx="1123951" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1586"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="四角形: 角を丸くする 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64DB5E3-7F28-4E23-B4FB-154F719A1637}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3286124" y="1181100"/>
+            <a:ext cx="3829051" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1586"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="四角形: 角を丸くする 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EC29E2-1048-4056-84D7-5498588C2F58}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3286124" y="1666875"/>
+            <a:ext cx="3829051" cy="3238500"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1586"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="図 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DCEE8D-9FCB-C3CA-766C-11A3B5AAE82A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3362325" y="1771649"/>
+            <a:ext cx="3629025" cy="2943357"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8037C6-3881-4026-8898-BABC7D508106}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="1752600"/>
+            <a:ext cx="1228726" cy="2914650"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1586"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="四角形: 角を丸くする 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BFBAF7-59A1-492E-BC2D-1020EE7CB117}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3305176" y="5095875"/>
+            <a:ext cx="3762374" cy="942975"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1586"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3438827" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EE0AF5-8DBA-24CB-16C9-92AA78696B9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="314325"/>
+          <a:ext cx="3438827" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コントロールメニュー　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>桐の設定で必ず</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>にする事</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9BD8F6-64A1-0A1F-34B2-CA9C9F1171AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7086601" y="487513"/>
+          <a:ext cx="904875" cy="241149"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031564" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C2B2F4-92BB-4D37-9700-85E155AA2F1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="552450"/>
+          <a:ext cx="1031564" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ファイルネーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1805815" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A694B3F1-0A80-4239-9A1D-E763C0250E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8039100" y="923925"/>
+          <a:ext cx="1805815" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>見出し　必ず調整すること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276288</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>147575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC333AA-8C24-4568-B0E2-229776417C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7134288" y="1097113"/>
+          <a:ext cx="904813" cy="241087"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA44378B-3854-4EA2-B4E7-E673EE891A09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="1809750"/>
+          <a:ext cx="492443" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>項目</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0E6857-5DB7-4DDC-B1DE-BEC2BFC2B028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4905375" y="1809750"/>
+          <a:ext cx="492443" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>項目</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C222332B-3999-405A-960E-2964C0EBD595}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="1819275"/>
+          <a:ext cx="492443" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>項目</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2997039" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3AB147-057A-4F26-B40F-A565A5ECE6D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="1914525"/>
+          <a:ext cx="2997039" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>リターンする 項目は太字にしてわかりやすくする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>181128</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>182713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="コネクタ: カギ線 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7BDF7F-CE2B-443B-849F-A2D051E5CB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7039128" y="2087713"/>
+          <a:ext cx="904723" cy="240997"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2679773" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6943A8-EE3F-4444-977D-B01532645B02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="2505075"/>
+          <a:ext cx="2679773" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>オブジェクトの名前は全て　「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>List</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>」にする。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="897682" cy="854593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25E9494-5C29-407A-BB1C-00BC16927016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="5162550"/>
+          <a:ext cx="897682" cy="854593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600" b="1">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="グループ化 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80907DE5-6942-4551-BC30-4551947772F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9877425" y="4171950"/>
+          <a:ext cx="1714500" cy="2066925"/>
+          <a:chOff x="3152775" y="495300"/>
+          <a:chExt cx="4105275" cy="5743575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789212C7-4C9A-76F8-6996-47E9625683CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3152775" y="495300"/>
+            <a:ext cx="4105275" cy="5743575"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1586"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA33421-59D2-20EE-7747-89F52D55CD6C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5962649" y="581025"/>
+            <a:ext cx="1123951" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1586"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="四角形: 角を丸くする 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82D752D-542A-0456-4C84-E57D1277F56B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3286124" y="1181100"/>
+            <a:ext cx="3829051" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1586"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="四角形: 角を丸くする 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AFEE30-4B60-C4C1-5A06-6D2E313A66C7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3286124" y="1666875"/>
+            <a:ext cx="3829051" cy="3238500"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1586"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="32" name="図 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC37FD78-D63A-387A-65AD-8FC788868BAE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3362325" y="1771649"/>
+            <a:ext cx="3629025" cy="2943357"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="四角形: 角を丸くする 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900D48BF-F3EC-0756-5131-07596F4717F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="1752600"/>
+            <a:ext cx="1228726" cy="2914650"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1586"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="四角形: 角を丸くする 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9413B892-59BA-7064-8799-AE87B3F86C86}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3305176" y="5095875"/>
+            <a:ext cx="3762374" cy="942975"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1586"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3833293" cy="600421"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79E60E5-DBD7-4B03-9A84-12D80B7CE3D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11811000" y="4152900"/>
+          <a:ext cx="3833293" cy="600421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>数値を返す場合はフォームの色を赤・オレンジ系で統一させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2016,11 +3701,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J221"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2032,7 +3718,8 @@
     <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="12" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2051,7 +3738,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
@@ -2063,9 +3750,11 @@
         <v>6</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2074,7 +3763,9 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2087,14 +3778,20 @@
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="14">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -2105,8 +3802,12 @@
       <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="C8" s="2" t="s">
@@ -2119,1745 +3820,1855 @@
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="15">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4" t="s">
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.75">
+      <c r="C13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="24.75">
-      <c r="C12" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" s="9" customFormat="1">
-      <c r="C14" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="C15" s="2" t="s">
-        <v>26</v>
+      <c r="C15" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="17" spans="3:10">
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="I18" s="15"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="2"/>
+      <c r="C19" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="I19" s="15"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="2"/>
+      <c r="C20" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="I20" s="15"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="3:10">
-      <c r="C21" s="2"/>
+      <c r="C21" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I21" s="15"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="3:10">
-      <c r="C22" s="2"/>
+      <c r="C22" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="I22" s="15"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="3:10">
-      <c r="C23" s="2"/>
+      <c r="C23" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="I23" s="15"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="3:10">
-      <c r="C24" s="2" t="s">
-        <v>39</v>
+      <c r="C24" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="I24" s="15"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="3:10" s="9" customFormat="1">
-      <c r="C25" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+    <row r="25" spans="3:10">
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="3:10">
-      <c r="C26" s="2" t="s">
-        <v>41</v>
+      <c r="C26" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I26" s="15"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="3:10">
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="3:10">
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="3:10">
       <c r="C29" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="3:10">
       <c r="C30" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="3:10">
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="3:10">
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="I34" s="15"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="3:10">
-      <c r="C35" s="2"/>
+      <c r="C35" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="I35" s="15"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="3:10">
-      <c r="C36" s="2"/>
+      <c r="C36" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="I36" s="15"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="3:10">
-      <c r="C37" s="2" t="s">
-        <v>63</v>
+      <c r="C37" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="15"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="3:10">
       <c r="C38" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="3:10">
       <c r="C39" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="3:10">
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="I40" s="15"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="3:10">
-      <c r="C41" s="2"/>
+      <c r="C41" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="4"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I41" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="I41" s="15"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="3:10">
-      <c r="C42" s="2"/>
+      <c r="C42" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="I42" s="15"/>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="3:10">
-      <c r="C43" s="2" t="s">
-        <v>69</v>
+      <c r="C43" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="15"/>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="3:10">
       <c r="C44" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="3:10">
       <c r="C45" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="2"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="3:10">
-      <c r="C46" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I46" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="I46" s="15"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="3:10">
-      <c r="C47" s="14" t="s">
-        <v>150</v>
+      <c r="C47" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I47" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="I47" s="15"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="3:10" s="9" customFormat="1">
-      <c r="C48" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+    <row r="48" spans="3:10">
+      <c r="C48" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="15"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="3:10">
-      <c r="C49" s="2" t="s">
-        <v>75</v>
+      <c r="C49" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="E49" s="4"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I49" s="15"/>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="3:10">
       <c r="C50" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="3:10">
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I51" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="I51" s="15"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="3:10">
-      <c r="C52" s="2" t="s">
-        <v>80</v>
+      <c r="C52" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" s="15"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="3:10">
       <c r="C53" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="3:10">
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D54" s="2"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I54" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="I54" s="15"/>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="3:10">
-      <c r="C55" s="2"/>
+      <c r="C55" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="4"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="I55" s="15"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="3:10">
-      <c r="C56" s="2" t="s">
-        <v>85</v>
+      <c r="C56" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56" s="15"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="3:10">
       <c r="C57" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="3:10">
       <c r="C58" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="3:10">
       <c r="C59" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="3:10" ht="24.75">
-      <c r="C60" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>95</v>
+    <row r="60" spans="3:10">
+      <c r="C60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="3:10">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="5"/>
+    <row r="61" spans="3:10" ht="24.75">
+      <c r="C61" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I61" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="I61" s="15"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="3:10" ht="24.75">
-      <c r="C62" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>97</v>
-      </c>
+    <row r="62" spans="3:10">
+      <c r="C62" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="5"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I62" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="I62" s="15"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="3:10">
-      <c r="C63" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="4" t="s">
-        <v>100</v>
+    <row r="63" spans="3:10" ht="24.75">
+      <c r="C63" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="H63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I63" s="15"/>
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="3:10">
       <c r="C64" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="3:10">
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I65" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="I65" s="15"/>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="3:10">
-      <c r="C66" s="2"/>
+      <c r="C66" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I66" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="I66" s="15"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="3:10">
-      <c r="C67" s="2"/>
+      <c r="C67" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D67" s="2"/>
       <c r="E67" s="4"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I67" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="I67" s="15"/>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="3:10">
-      <c r="C68" s="2" t="s">
-        <v>106</v>
+      <c r="C68" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="E68" s="4"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I68" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="I68" s="15"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="3:10">
-      <c r="C69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="D69" s="2"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I69" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="I69" s="15"/>
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="3:10">
-      <c r="C70" s="2" t="s">
-        <v>107</v>
+      <c r="C70" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D70" s="2"/>
-      <c r="E70" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70" s="15"/>
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="3:10">
       <c r="C71" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="3:10">
       <c r="C72" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="2"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="3:10">
+      <c r="C73" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="3:10">
-      <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I73" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="I73" s="15"/>
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="3:10">
-      <c r="C74" s="2" t="s">
-        <v>115</v>
+      <c r="C74" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D74" s="2"/>
-      <c r="E74" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="E74" s="4"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I74" s="15"/>
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="3:10">
       <c r="C75" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="3:10" ht="24.75">
-      <c r="C76" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>120</v>
+    <row r="76" spans="3:10">
+      <c r="C76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="3:10">
-      <c r="C77" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="4" t="s">
-        <v>123</v>
+    <row r="77" spans="3:10" ht="24.75">
+      <c r="C77" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="H77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I77" s="15"/>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="3:10">
       <c r="C78" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="3:10">
       <c r="C79" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="3:10">
       <c r="C80" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="3:10">
       <c r="C81" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="3:10">
       <c r="C82" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="3:10">
       <c r="C83" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="3:10" ht="24.75">
-      <c r="C84" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>138</v>
+    <row r="84" spans="3:10">
+      <c r="C84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="2"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="3:10" ht="24.75">
+      <c r="C85" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="3:10">
-      <c r="C85" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="H85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I85" s="15"/>
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="3:10">
-      <c r="C86" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E86" s="4"/>
+      <c r="C86" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="3:10">
-      <c r="C87" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>150</v>
+      <c r="C87" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I87" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="I87" s="15"/>
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="3:10">
       <c r="C88" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I88" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="I88" s="15"/>
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="3:10">
       <c r="C89" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I89" s="15"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="3:10">
+      <c r="C90" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="3:10">
-      <c r="C90" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>141</v>
+      <c r="D90" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I90" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="I90" s="15"/>
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="3:10">
       <c r="C91" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I91" s="15"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="3:10">
+      <c r="C92" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="3:10">
-      <c r="C92" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="D92" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I92" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="I92" s="15"/>
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="3:10">
-      <c r="C93" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E93" s="4"/>
+      <c r="C93" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I93" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="I93" s="15"/>
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="3:10">
       <c r="C94" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I94" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="I94" s="15"/>
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="3:10">
       <c r="C95" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I95" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="I95" s="15"/>
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="3:10">
       <c r="C96" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I96" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="I96" s="15"/>
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="3:10">
       <c r="C97" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I97" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="I97" s="15"/>
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="3:10">
-      <c r="C98" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="C98" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" s="4"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
+      <c r="H98" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I98" s="15"/>
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="3:10">
       <c r="C99" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
+      <c r="I99" s="15"/>
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="3:10">
       <c r="C100" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D100" s="2"/>
-      <c r="E100" s="4"/>
+      <c r="E100" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="15"/>
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="3:10">
-      <c r="C101" s="8" t="s">
-        <v>150</v>
+      <c r="C101" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="4"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I101" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="I101" s="15"/>
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="3:10">
-      <c r="C102" s="2" t="s">
-        <v>166</v>
+      <c r="C102" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
+      <c r="H102" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I102" s="15"/>
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="3:10">
       <c r="C103" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="4"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
+      <c r="I103" s="15"/>
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="3:10">
       <c r="C104" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
+      <c r="I104" s="15"/>
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="3:10">
       <c r="C105" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="4"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
+      <c r="I105" s="15"/>
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="3:10">
       <c r="C106" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="4"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
+      <c r="I106" s="15"/>
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="3:10">
       <c r="C107" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="4"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="15"/>
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="3:10">
-      <c r="C108" s="8" t="s">
-        <v>150</v>
+      <c r="C108" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="4"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I108" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="I108" s="15"/>
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="3:10">
-      <c r="C109" s="2" t="s">
-        <v>171</v>
+      <c r="C109" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="4"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
+      <c r="H109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I109" s="15"/>
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="3:10">
       <c r="C110" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="4"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
+      <c r="I110" s="15"/>
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="3:10">
-      <c r="C111" s="13" t="s">
-        <v>173</v>
+      <c r="C111" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="12" t="s">
-        <v>174</v>
-      </c>
+      <c r="E111" s="4"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
+      <c r="I111" s="15"/>
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="3:10">
-      <c r="C112" s="13" t="s">
-        <v>175</v>
+      <c r="C112" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="12" t="s">
-        <v>174</v>
+      <c r="E112" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
+      <c r="I112" s="15"/>
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="3:10">
-      <c r="C113" s="2" t="s">
-        <v>176</v>
+      <c r="C113" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="12" t="s">
-        <v>174</v>
+      <c r="E113" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
+      <c r="I113" s="15"/>
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="3:10">
       <c r="C114" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="4" t="s">
-        <v>179</v>
+      <c r="E114" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
+      <c r="I114" s="15"/>
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="3:10">
-      <c r="C115" s="10" t="s">
-        <v>177</v>
+      <c r="C115" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
+      <c r="I115" s="15"/>
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="3:10">
       <c r="C116" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
+      <c r="I116" s="15"/>
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="3:10">
       <c r="C117" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="15"/>
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="3:10">
-      <c r="C118" s="14" t="s">
-        <v>150</v>
+      <c r="C118" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D118" s="2"/>
-      <c r="E118" s="4"/>
+      <c r="E118" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I118" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="I118" s="15"/>
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="3:10">
-      <c r="C119" s="14" t="s">
-        <v>150</v>
+      <c r="C119" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="4"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I119" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="I119" s="15"/>
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="3:10">
-      <c r="C120" s="14" t="s">
-        <v>150</v>
+      <c r="C120" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="4"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I120" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="I120" s="15"/>
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="3:10">
-      <c r="C121" s="14" t="s">
-        <v>150</v>
+      <c r="C121" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="4"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I121" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="I121" s="15"/>
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="3:10">
-      <c r="C122" s="14" t="s">
-        <v>150</v>
+      <c r="C122" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="4"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I122" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="I122" s="15"/>
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="3:10">
-      <c r="C123" s="14" t="s">
-        <v>150</v>
+      <c r="C123" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="4"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I123" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="I123" s="15"/>
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="3:10">
-      <c r="C124" s="2" t="s">
-        <v>192</v>
+      <c r="C124" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D124" s="2"/>
-      <c r="E124" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="E124" s="4"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
+      <c r="H124" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I124" s="15"/>
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="3:10">
       <c r="C125" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D125" s="2"/>
-      <c r="E125" s="4"/>
+      <c r="E125" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
+      <c r="I125" s="15"/>
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="3:10">
       <c r="C126" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="4"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
+      <c r="I126" s="15"/>
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="3:10">
       <c r="C127" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="4" t="s">
-        <v>201</v>
-      </c>
+      <c r="E127" s="4"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
+      <c r="I127" s="15"/>
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="3:10">
       <c r="C128" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
+      <c r="I128" s="15"/>
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="3:10">
       <c r="C129" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
+      <c r="I129" s="15"/>
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="3:10">
       <c r="C130" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
+      <c r="I130" s="15"/>
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="3:10">
       <c r="C131" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
+      <c r="I131" s="15"/>
       <c r="J131" s="2"/>
     </row>
     <row r="132" spans="3:10">
-      <c r="C132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="D132" s="2"/>
-      <c r="E132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
+      <c r="I132" s="15"/>
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="3:10">
@@ -3867,7 +5678,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
+      <c r="I133" s="15"/>
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="3:10">
@@ -3877,7 +5688,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
+      <c r="I134" s="15"/>
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="3:10">
@@ -3887,7 +5698,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
+      <c r="I135" s="15"/>
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="3:10">
@@ -3897,7 +5708,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
+      <c r="I136" s="15"/>
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="3:10">
@@ -3907,7 +5718,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
+      <c r="I137" s="15"/>
       <c r="J137" s="2"/>
     </row>
     <row r="138" spans="3:10">
@@ -3917,7 +5728,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
+      <c r="I138" s="15"/>
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="3:10">
@@ -3927,7 +5738,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
+      <c r="I139" s="15"/>
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="3:10">
@@ -3937,7 +5748,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
+      <c r="I140" s="15"/>
       <c r="J140" s="2"/>
     </row>
     <row r="141" spans="3:10">
@@ -3947,7 +5758,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
+      <c r="I141" s="15"/>
       <c r="J141" s="2"/>
     </row>
     <row r="142" spans="3:10">
@@ -3957,7 +5768,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
+      <c r="I142" s="15"/>
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="3:10">
@@ -3967,7 +5778,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
+      <c r="I143" s="15"/>
       <c r="J143" s="2"/>
     </row>
     <row r="144" spans="3:10">
@@ -3977,7 +5788,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
+      <c r="I144" s="15"/>
       <c r="J144" s="2"/>
     </row>
     <row r="145" spans="3:10">
@@ -3987,7 +5798,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
+      <c r="I145" s="15"/>
       <c r="J145" s="2"/>
     </row>
     <row r="146" spans="3:10">
@@ -3997,7 +5808,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
+      <c r="I146" s="15"/>
       <c r="J146" s="2"/>
     </row>
     <row r="147" spans="3:10">
@@ -4007,7 +5818,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
+      <c r="I147" s="15"/>
       <c r="J147" s="2"/>
     </row>
     <row r="148" spans="3:10">
@@ -4017,7 +5828,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
+      <c r="I148" s="15"/>
       <c r="J148" s="2"/>
     </row>
     <row r="149" spans="3:10">
@@ -4027,7 +5838,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
+      <c r="I149" s="15"/>
       <c r="J149" s="2"/>
     </row>
     <row r="150" spans="3:10">
@@ -4037,7 +5848,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
+      <c r="I150" s="15"/>
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="3:10">
@@ -4047,7 +5858,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
+      <c r="I151" s="15"/>
       <c r="J151" s="2"/>
     </row>
     <row r="152" spans="3:10">
@@ -4057,7 +5868,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
+      <c r="I152" s="15"/>
       <c r="J152" s="2"/>
     </row>
     <row r="153" spans="3:10">
@@ -4067,7 +5878,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
+      <c r="I153" s="15"/>
       <c r="J153" s="2"/>
     </row>
     <row r="154" spans="3:10">
@@ -4077,7 +5888,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
+      <c r="I154" s="15"/>
       <c r="J154" s="2"/>
     </row>
     <row r="155" spans="3:10">
@@ -4087,7 +5898,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
+      <c r="I155" s="15"/>
       <c r="J155" s="2"/>
     </row>
     <row r="156" spans="3:10">
@@ -4097,7 +5908,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
+      <c r="I156" s="15"/>
       <c r="J156" s="2"/>
     </row>
     <row r="157" spans="3:10">
@@ -4107,7 +5918,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
+      <c r="I157" s="15"/>
       <c r="J157" s="2"/>
     </row>
     <row r="158" spans="3:10">
@@ -4117,7 +5928,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
+      <c r="I158" s="15"/>
       <c r="J158" s="2"/>
     </row>
     <row r="159" spans="3:10">
@@ -4127,7 +5938,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
+      <c r="I159" s="15"/>
       <c r="J159" s="2"/>
     </row>
     <row r="160" spans="3:10">
@@ -4137,7 +5948,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
+      <c r="I160" s="15"/>
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="3:10">
@@ -4147,7 +5958,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
+      <c r="I161" s="15"/>
       <c r="J161" s="2"/>
     </row>
     <row r="162" spans="3:10">
@@ -4157,7 +5968,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
+      <c r="I162" s="15"/>
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="3:10">
@@ -4167,7 +5978,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
+      <c r="I163" s="15"/>
       <c r="J163" s="2"/>
     </row>
     <row r="164" spans="3:10">
@@ -4177,7 +5988,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
+      <c r="I164" s="15"/>
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="3:10">
@@ -4187,7 +5998,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
+      <c r="I165" s="15"/>
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="3:10">
@@ -4197,7 +6008,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
+      <c r="I166" s="15"/>
       <c r="J166" s="2"/>
     </row>
     <row r="167" spans="3:10">
@@ -4207,7 +6018,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
+      <c r="I167" s="15"/>
       <c r="J167" s="2"/>
     </row>
     <row r="168" spans="3:10">
@@ -4217,7 +6028,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
+      <c r="I168" s="15"/>
       <c r="J168" s="2"/>
     </row>
     <row r="169" spans="3:10">
@@ -4227,7 +6038,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
+      <c r="I169" s="15"/>
       <c r="J169" s="2"/>
     </row>
     <row r="170" spans="3:10">
@@ -4237,7 +6048,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
+      <c r="I170" s="15"/>
       <c r="J170" s="2"/>
     </row>
     <row r="171" spans="3:10">
@@ -4247,7 +6058,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
+      <c r="I171" s="15"/>
       <c r="J171" s="2"/>
     </row>
     <row r="172" spans="3:10">
@@ -4257,7 +6068,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
+      <c r="I172" s="15"/>
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="3:10">
@@ -4267,7 +6078,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
+      <c r="I173" s="15"/>
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="3:10">
@@ -4277,7 +6088,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
+      <c r="I174" s="15"/>
       <c r="J174" s="2"/>
     </row>
     <row r="175" spans="3:10">
@@ -4287,7 +6098,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
+      <c r="I175" s="15"/>
       <c r="J175" s="2"/>
     </row>
     <row r="176" spans="3:10">
@@ -4297,7 +6108,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
+      <c r="I176" s="15"/>
       <c r="J176" s="2"/>
     </row>
     <row r="177" spans="3:10">
@@ -4307,7 +6118,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
+      <c r="I177" s="15"/>
       <c r="J177" s="2"/>
     </row>
     <row r="178" spans="3:10">
@@ -4317,7 +6128,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
+      <c r="I178" s="15"/>
       <c r="J178" s="2"/>
     </row>
     <row r="179" spans="3:10">
@@ -4327,7 +6138,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
+      <c r="I179" s="15"/>
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="3:10">
@@ -4337,7 +6148,7 @@
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
+      <c r="I180" s="15"/>
       <c r="J180" s="2"/>
     </row>
     <row r="181" spans="3:10">
@@ -4347,7 +6158,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
+      <c r="I181" s="15"/>
       <c r="J181" s="2"/>
     </row>
     <row r="182" spans="3:10">
@@ -4357,7 +6168,7 @@
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
+      <c r="I182" s="15"/>
       <c r="J182" s="2"/>
     </row>
     <row r="183" spans="3:10">
@@ -4367,7 +6178,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
+      <c r="I183" s="15"/>
       <c r="J183" s="2"/>
     </row>
     <row r="184" spans="3:10">
@@ -4377,7 +6188,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
+      <c r="I184" s="15"/>
       <c r="J184" s="2"/>
     </row>
     <row r="185" spans="3:10">
@@ -4387,7 +6198,7 @@
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
+      <c r="I185" s="15"/>
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="3:10">
@@ -4397,7 +6208,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
+      <c r="I186" s="15"/>
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="3:10">
@@ -4407,7 +6218,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
+      <c r="I187" s="15"/>
       <c r="J187" s="2"/>
     </row>
     <row r="188" spans="3:10">
@@ -4417,7 +6228,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
+      <c r="I188" s="15"/>
       <c r="J188" s="2"/>
     </row>
     <row r="189" spans="3:10">
@@ -4427,7 +6238,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
+      <c r="I189" s="15"/>
       <c r="J189" s="2"/>
     </row>
     <row r="190" spans="3:10">
@@ -4437,7 +6248,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
+      <c r="I190" s="15"/>
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="3:10">
@@ -4447,7 +6258,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
+      <c r="I191" s="15"/>
       <c r="J191" s="2"/>
     </row>
     <row r="192" spans="3:10">
@@ -4457,7 +6268,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
+      <c r="I192" s="15"/>
       <c r="J192" s="2"/>
     </row>
     <row r="193" spans="3:10">
@@ -4467,7 +6278,7 @@
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
+      <c r="I193" s="15"/>
       <c r="J193" s="2"/>
     </row>
     <row r="194" spans="3:10">
@@ -4477,7 +6288,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
+      <c r="I194" s="15"/>
       <c r="J194" s="2"/>
     </row>
     <row r="195" spans="3:10">
@@ -4487,7 +6298,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
+      <c r="I195" s="15"/>
       <c r="J195" s="2"/>
     </row>
     <row r="196" spans="3:10">
@@ -4497,7 +6308,7 @@
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
+      <c r="I196" s="15"/>
       <c r="J196" s="2"/>
     </row>
     <row r="197" spans="3:10">
@@ -4507,7 +6318,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
+      <c r="I197" s="15"/>
       <c r="J197" s="2"/>
     </row>
     <row r="198" spans="3:10">
@@ -4517,7 +6328,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
+      <c r="I198" s="15"/>
       <c r="J198" s="2"/>
     </row>
     <row r="199" spans="3:10">
@@ -4527,7 +6338,7 @@
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
+      <c r="I199" s="15"/>
       <c r="J199" s="2"/>
     </row>
     <row r="200" spans="3:10">
@@ -4537,7 +6348,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
+      <c r="I200" s="15"/>
       <c r="J200" s="2"/>
     </row>
     <row r="201" spans="3:10">
@@ -4547,7 +6358,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
+      <c r="I201" s="15"/>
       <c r="J201" s="2"/>
     </row>
     <row r="202" spans="3:10">
@@ -4557,7 +6368,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
-      <c r="I202" s="2"/>
+      <c r="I202" s="15"/>
       <c r="J202" s="2"/>
     </row>
     <row r="203" spans="3:10">
@@ -4567,7 +6378,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
+      <c r="I203" s="15"/>
       <c r="J203" s="2"/>
     </row>
     <row r="204" spans="3:10">
@@ -4577,7 +6388,7 @@
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
+      <c r="I204" s="15"/>
       <c r="J204" s="2"/>
     </row>
     <row r="205" spans="3:10">
@@ -4587,7 +6398,7 @@
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
+      <c r="I205" s="15"/>
       <c r="J205" s="2"/>
     </row>
     <row r="206" spans="3:10">
@@ -4597,7 +6408,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
+      <c r="I206" s="15"/>
       <c r="J206" s="2"/>
     </row>
     <row r="207" spans="3:10">
@@ -4607,7 +6418,7 @@
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
+      <c r="I207" s="15"/>
       <c r="J207" s="2"/>
     </row>
     <row r="208" spans="3:10">
@@ -4617,7 +6428,7 @@
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
-      <c r="I208" s="2"/>
+      <c r="I208" s="15"/>
       <c r="J208" s="2"/>
     </row>
     <row r="209" spans="3:10">
@@ -4627,7 +6438,7 @@
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
+      <c r="I209" s="15"/>
       <c r="J209" s="2"/>
     </row>
     <row r="210" spans="3:10">
@@ -4637,7 +6448,7 @@
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
+      <c r="I210" s="15"/>
       <c r="J210" s="2"/>
     </row>
     <row r="211" spans="3:10">
@@ -4647,7 +6458,7 @@
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
+      <c r="I211" s="15"/>
       <c r="J211" s="2"/>
     </row>
     <row r="212" spans="3:10">
@@ -4657,7 +6468,7 @@
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
+      <c r="I212" s="15"/>
       <c r="J212" s="2"/>
     </row>
     <row r="213" spans="3:10">
@@ -4667,7 +6478,7 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
+      <c r="I213" s="15"/>
       <c r="J213" s="2"/>
     </row>
     <row r="214" spans="3:10">
@@ -4677,7 +6488,7 @@
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
+      <c r="I214" s="15"/>
       <c r="J214" s="2"/>
     </row>
     <row r="215" spans="3:10">
@@ -4687,7 +6498,7 @@
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
+      <c r="I215" s="15"/>
       <c r="J215" s="2"/>
     </row>
     <row r="216" spans="3:10">
@@ -4697,7 +6508,7 @@
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
+      <c r="I216" s="15"/>
       <c r="J216" s="2"/>
     </row>
     <row r="217" spans="3:10">
@@ -4707,7 +6518,7 @@
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
+      <c r="I217" s="15"/>
       <c r="J217" s="2"/>
     </row>
     <row r="218" spans="3:10">
@@ -4717,7 +6528,7 @@
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
+      <c r="I218" s="15"/>
       <c r="J218" s="2"/>
     </row>
     <row r="219" spans="3:10">
@@ -4727,7 +6538,7 @@
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
+      <c r="I219" s="15"/>
       <c r="J219" s="2"/>
     </row>
     <row r="220" spans="3:10">
@@ -4737,7 +6548,7 @@
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
+      <c r="I220" s="15"/>
       <c r="J220" s="2"/>
     </row>
     <row r="221" spans="3:10">
@@ -4747,16 +6558,57 @@
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
+      <c r="I221" s="15"/>
       <c r="J221" s="2"/>
+    </row>
+    <row r="222" spans="3:10">
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="15"/>
+      <c r="J222" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="H6:H221">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="H6:H222">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NUM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"STR"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D7FA77-2721-466F-9C97-978CE21406D5}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="24" spans="16:16">
+      <c r="P24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
+++ b/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\System\modal\prepackage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJ\シモダ\Github\System\modal\prepackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F19FE4A-E0D4-4C22-A47E-959FA4D5ECDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A01E751-724A-4718-AC90-89FD7FD6C006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-10215" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38310" yWindow="-11030" windowWidth="21780" windowHeight="18930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="231">
   <si>
     <t>各モーダル選択フォーム仕様書</t>
   </si>
@@ -1668,6 +1668,45 @@
     <t>菊半</t>
     <rPh sb="0" eb="2">
       <t>キクハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11-H150</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06_02_仕上工程「折」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3つ折</t>
+    <rPh sb="2" eb="3">
+      <t>オリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06_02_仕上工程「断裁」</t>
+    <rPh sb="11" eb="13">
+      <t>ダンサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕上断裁</t>
+    <rPh sb="0" eb="2">
+      <t>シアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンサイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1795,7 +1834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1824,11 +1863,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="4" tint="-0.24994659260841701"/>
@@ -1838,13 +1887,6 @@
       <font>
         <color theme="5"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1887,8 +1929,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3152775" y="495300"/>
-          <a:ext cx="4105275" cy="5743575"/>
+          <a:off x="3051175" y="476250"/>
+          <a:ext cx="3952875" cy="5514975"/>
           <a:chOff x="3152775" y="495300"/>
           <a:chExt cx="4105275" cy="5743575"/>
         </a:xfrm>
@@ -3020,8 +3062,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9877425" y="4171950"/>
-          <a:ext cx="1714500" cy="2066925"/>
+          <a:off x="9521825" y="4010025"/>
+          <a:ext cx="1663700" cy="1981200"/>
           <a:chOff x="3152775" y="495300"/>
           <a:chExt cx="4105275" cy="5743575"/>
         </a:xfrm>
@@ -3706,20 +3748,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08203125" style="12" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3733,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="36.75">
+    <row r="5" spans="1:10" ht="34">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3915,7 +3957,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24.75">
+    <row r="13" spans="1:10" ht="25.5">
       <c r="C13" s="2" t="s">
         <v>220</v>
       </c>
@@ -4013,11 +4055,19 @@
       <c r="E17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="2"/>
+      <c r="I17" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="18" spans="3:10">
       <c r="C18" s="2" t="s">
@@ -4027,13 +4077,21 @@
       <c r="E18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="19" spans="3:10">
       <c r="C19" s="11" t="s">
@@ -4041,13 +4099,21 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="2"/>
+      <c r="I19" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="20" spans="3:10">
       <c r="C20" s="11" t="s">
@@ -4633,7 +4699,7 @@
       <c r="I60" s="15"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="3:10" ht="24.75">
+    <row r="61" spans="3:10" ht="25.5">
       <c r="C61" s="7" t="s">
         <v>91</v>
       </c>
@@ -4665,7 +4731,7 @@
       <c r="I62" s="15"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="3:10" ht="24.75">
+    <row r="63" spans="3:10" ht="25.5">
       <c r="C63" s="7" t="s">
         <v>94</v>
       </c>
@@ -4871,7 +4937,7 @@
       <c r="I76" s="15"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="3:10" ht="24.75">
+    <row r="77" spans="3:10" ht="25.5">
       <c r="C77" s="7" t="s">
         <v>117</v>
       </c>
@@ -4987,7 +5053,7 @@
       <c r="I84" s="15"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="3:10" ht="24.75">
+    <row r="85" spans="3:10" ht="25.5">
       <c r="C85" s="7" t="s">
         <v>135</v>
       </c>
@@ -6573,17 +6639,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="H6:H222">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>""</formula>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"NUM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"STR"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"NUM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"STR"</formula>
+  <conditionalFormatting sqref="H6:H222">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6599,7 +6665,7 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="24" spans="16:16">
       <c r="P24" t="s">

--- a/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
+++ b/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJ\シモダ\Github\System\modal\prepackage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\System\modal\prepackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A01E751-724A-4718-AC90-89FD7FD6C006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8DBFB3-421C-4594-950F-A7CCECCBEFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38310" yWindow="-11030" windowWidth="21780" windowHeight="18930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-10215" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="238">
   <si>
     <t>各モーダル選択フォーム仕様書</t>
   </si>
@@ -1708,6 +1708,58 @@
     <rPh sb="2" eb="4">
       <t>ダンサイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06_02_仕上工程「丁合」</t>
+    <rPh sb="11" eb="13">
+      <t>チョウアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06_02_仕上工程「綴じ」</t>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06_02_仕上工程「発送」</t>
+    <rPh sb="11" eb="13">
+      <t>ハッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06_02_仕上工程「穴あけ」</t>
+    <rPh sb="11" eb="12">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06_02_仕上工程「その他」</t>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06_02_仕上工程「特折指定1」</t>
+    <rPh sb="11" eb="12">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06_02_仕上工程「ミシンすじ」</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1870,7 +1922,31 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1929,8 +2005,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3051175" y="476250"/>
-          <a:ext cx="3952875" cy="5514975"/>
+          <a:off x="3152775" y="495300"/>
+          <a:ext cx="4105275" cy="5743575"/>
           <a:chOff x="3152775" y="495300"/>
           <a:chExt cx="4105275" cy="5743575"/>
         </a:xfrm>
@@ -3062,8 +3138,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9521825" y="4010025"/>
-          <a:ext cx="1663700" cy="1981200"/>
+          <a:off x="9877425" y="4171950"/>
+          <a:ext cx="1714500" cy="2066925"/>
           <a:chOff x="3152775" y="495300"/>
           <a:chExt cx="4105275" cy="5743575"/>
         </a:xfrm>
@@ -3746,22 +3822,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.08203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="12" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3775,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="34">
+    <row r="5" spans="1:10" ht="36.75">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3957,7 +4033,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="25.5">
+    <row r="13" spans="1:10" ht="24.75">
       <c r="C13" s="2" t="s">
         <v>220</v>
       </c>
@@ -4121,8 +4197,12 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>31</v>
       </c>
@@ -4135,8 +4215,12 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>32</v>
       </c>
@@ -4149,8 +4233,12 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4163,8 +4251,12 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="H23" s="2" t="s">
         <v>34</v>
       </c>
@@ -4177,8 +4269,12 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>35</v>
       </c>
@@ -4699,7 +4795,7 @@
       <c r="I60" s="15"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="3:10" ht="25.5">
+    <row r="61" spans="3:10" ht="24.75">
       <c r="C61" s="7" t="s">
         <v>91</v>
       </c>
@@ -4724,14 +4820,16 @@
       <c r="D62" s="2"/>
       <c r="E62" s="5"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="G62" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="H62" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I62" s="15"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="3:10" ht="25.5">
+    <row r="63" spans="3:10" ht="24.75">
       <c r="C63" s="7" t="s">
         <v>94</v>
       </c>
@@ -4742,7 +4840,9 @@
         <v>95</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="H63" s="2" t="s">
         <v>96</v>
       </c>
@@ -4937,7 +5037,7 @@
       <c r="I76" s="15"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="3:10" ht="25.5">
+    <row r="77" spans="3:10" ht="24.75">
       <c r="C77" s="7" t="s">
         <v>117</v>
       </c>
@@ -5053,7 +5153,7 @@
       <c r="I84" s="15"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="3:10" ht="25.5">
+    <row r="85" spans="3:10" ht="24.75">
       <c r="C85" s="7" t="s">
         <v>135</v>
       </c>
@@ -6640,15 +6740,20 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"NUM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"STR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H222">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G222">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6665,7 +6770,7 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="24" spans="16:16">
       <c r="P24" t="s">

--- a/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
+++ b/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\System\modal\prepackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8DBFB3-421C-4594-950F-A7CCECCBEFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F131C00-D0D1-47DC-89F5-A511B71300ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-10215" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="248">
   <si>
     <t>各モーダル選択フォーム仕様書</t>
   </si>
@@ -323,9 +323,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>07_01_印刷項目リスト</t>
-  </si>
-  <si>
     <t>表紙　扉　とかとか</t>
     <rPh sb="0" eb="2">
       <t>ヒョウシ</t>
@@ -356,10 +353,6 @@
     <rPh sb="16" eb="17">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>08_02_取引先住所.tbx</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1760,6 +1753,74 @@
   </si>
   <si>
     <t>06_02_仕上工程「ミシンすじ」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>07_01_印刷項目リスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>07_01_印刷項目リスト「基本」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>---</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表紙</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>07_01_印刷項目リスト「外注」</t>
+    <rPh sb="14" eb="16">
+      <t>ガイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（空欄）</t>
+    <rPh sb="1" eb="3">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紙弘</t>
+    <rPh sb="0" eb="2">
+      <t>カミヒロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄無し</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>08_02_取引先住所</t>
+  </si>
+  <si>
+    <t>08_02_取引先住所</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NUM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入札</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウサツ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1886,7 +1947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1918,11 +1979,21 @@
     <xf numFmtId="56" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1931,26 +2002,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3824,7 +3878,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3856,7 +3910,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
@@ -3868,10 +3922,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>9</v>
@@ -3882,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
@@ -3905,10 +3959,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="2" t="s">
@@ -3921,7 +3975,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
@@ -3939,11 +3993,11 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>10</v>
@@ -3951,7 +4005,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="C9" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
@@ -3961,11 +4015,11 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>10</v>
@@ -3983,11 +4037,11 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>10</v>
@@ -3998,17 +4052,17 @@
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
       <c r="F11" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="15">
         <v>32</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4027,15 +4081,15 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.75">
       <c r="C13" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5" t="s">
@@ -4045,11 +4099,11 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>10</v>
@@ -4067,13 +4121,13 @@
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>10</v>
@@ -4081,7 +4135,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="C15" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
@@ -4089,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>10</v>
@@ -4117,10 +4171,10 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -4139,10 +4193,10 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="3:10">
@@ -4157,21 +4211,21 @@
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="3:10">
       <c r="C19" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
@@ -4179,21 +4233,21 @@
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="3:10">
       <c r="C20" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -4201,17 +4255,21 @@
         <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="2"/>
+      <c r="I20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="21" spans="3:10">
       <c r="C21" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
@@ -4219,17 +4277,21 @@
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="2"/>
+      <c r="I21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="22" spans="3:10">
       <c r="C22" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
@@ -4237,17 +4299,21 @@
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="2"/>
+      <c r="I22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="23" spans="3:10">
       <c r="C23" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
@@ -4255,17 +4321,21 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="2"/>
+      <c r="I23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
@@ -4273,93 +4343,137 @@
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="2"/>
+      <c r="I24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="25" spans="3:10">
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="H25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="26" spans="3:10">
       <c r="C26" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="H26" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="27" spans="3:10">
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="2"/>
+      <c r="I27" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="28" spans="3:10">
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I28" s="15">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="29" spans="3:10">
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="2"/>
+      <c r="I29" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="30" spans="3:10">
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4369,11 +4483,11 @@
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4383,11 +4497,11 @@
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4397,11 +4511,11 @@
     </row>
     <row r="33" spans="3:10">
       <c r="C33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4411,69 +4525,69 @@
     </row>
     <row r="34" spans="3:10">
       <c r="C34" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="3:10">
       <c r="C35" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="3:10">
       <c r="C36" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="3:10">
       <c r="C37" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="3:10">
       <c r="C38" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -4483,11 +4597,11 @@
     </row>
     <row r="39" spans="3:10">
       <c r="C39" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -4497,69 +4611,69 @@
     </row>
     <row r="40" spans="3:10">
       <c r="C40" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="3:10">
       <c r="C41" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="4"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="3:10">
       <c r="C42" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="3:10">
       <c r="C43" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="4"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="3:10">
       <c r="C44" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4569,11 +4683,11 @@
     </row>
     <row r="45" spans="3:10">
       <c r="C45" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -4583,67 +4697,67 @@
     </row>
     <row r="46" spans="3:10">
       <c r="C46" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="3:10">
       <c r="C47" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="3:10">
       <c r="C48" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="3:10">
       <c r="C49" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="4"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="3:10">
       <c r="C50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -4653,41 +4767,41 @@
     </row>
     <row r="51" spans="3:10">
       <c r="C51" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="3:10">
       <c r="C52" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="3:10">
       <c r="C53" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -4697,55 +4811,55 @@
     </row>
     <row r="54" spans="3:10">
       <c r="C54" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="3:10">
       <c r="C55" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="4"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="3:10">
       <c r="C56" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="3:10">
       <c r="C57" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -4755,11 +4869,11 @@
     </row>
     <row r="58" spans="3:10">
       <c r="C58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -4769,11 +4883,11 @@
     </row>
     <row r="59" spans="3:10">
       <c r="C59" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -4783,11 +4897,11 @@
     </row>
     <row r="60" spans="3:10">
       <c r="C60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -4797,13 +4911,13 @@
     </row>
     <row r="61" spans="3:10" ht="24.75">
       <c r="C61" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -4815,47 +4929,47 @@
     </row>
     <row r="62" spans="3:10">
       <c r="C62" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I62" s="15"/>
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="3:10" ht="24.75">
       <c r="C63" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="3:10">
       <c r="C64" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -4865,99 +4979,99 @@
     </row>
     <row r="65" spans="3:10">
       <c r="C65" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="3:10">
       <c r="C66" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="3:10">
       <c r="C67" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="4"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="3:10">
       <c r="C68" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="3:10">
       <c r="C69" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="3:10">
       <c r="C70" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="3:10">
       <c r="C71" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -4967,11 +5081,11 @@
     </row>
     <row r="72" spans="3:10">
       <c r="C72" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -4981,41 +5095,41 @@
     </row>
     <row r="73" spans="3:10">
       <c r="C73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="3:10">
       <c r="C74" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="3:10">
       <c r="C75" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -5025,11 +5139,11 @@
     </row>
     <row r="76" spans="3:10">
       <c r="C76" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -5039,29 +5153,29 @@
     </row>
     <row r="77" spans="3:10" ht="24.75">
       <c r="C77" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="3:10">
       <c r="C78" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -5071,11 +5185,11 @@
     </row>
     <row r="79" spans="3:10">
       <c r="C79" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -5085,11 +5199,11 @@
     </row>
     <row r="80" spans="3:10">
       <c r="C80" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -5099,11 +5213,11 @@
     </row>
     <row r="81" spans="3:10">
       <c r="C81" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -5113,11 +5227,11 @@
     </row>
     <row r="82" spans="3:10">
       <c r="C82" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -5127,11 +5241,11 @@
     </row>
     <row r="83" spans="3:10">
       <c r="C83" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -5141,11 +5255,11 @@
     </row>
     <row r="84" spans="3:10">
       <c r="C84" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -5155,29 +5269,29 @@
     </row>
     <row r="85" spans="3:10" ht="24.75">
       <c r="C85" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="3:10">
       <c r="C86" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -5187,203 +5301,203 @@
     </row>
     <row r="87" spans="3:10">
       <c r="C87" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I87" s="15"/>
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="3:10">
       <c r="C88" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I88" s="15"/>
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="3:10">
       <c r="C89" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I89" s="15"/>
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="3:10">
       <c r="C90" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="3:10">
       <c r="C91" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I91" s="15"/>
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="3:10">
       <c r="C92" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I92" s="15"/>
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="3:10">
       <c r="C93" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I93" s="15"/>
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="3:10">
       <c r="C94" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I94" s="15"/>
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="3:10">
       <c r="C95" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="3:10">
       <c r="C96" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I96" s="15"/>
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="3:10">
       <c r="C97" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I97" s="15"/>
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="3:10">
       <c r="C98" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I98" s="15"/>
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="3:10">
       <c r="C99" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -5393,11 +5507,11 @@
     </row>
     <row r="100" spans="3:10">
       <c r="C100" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -5407,35 +5521,35 @@
     </row>
     <row r="101" spans="3:10">
       <c r="C101" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="4"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I101" s="15"/>
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="3:10">
       <c r="C102" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I102" s="15"/>
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="3:10">
       <c r="C103" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="4"/>
@@ -5447,7 +5561,7 @@
     </row>
     <row r="104" spans="3:10">
       <c r="C104" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="4"/>
@@ -5459,7 +5573,7 @@
     </row>
     <row r="105" spans="3:10">
       <c r="C105" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="4"/>
@@ -5471,7 +5585,7 @@
     </row>
     <row r="106" spans="3:10">
       <c r="C106" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="4"/>
@@ -5483,7 +5597,7 @@
     </row>
     <row r="107" spans="3:10">
       <c r="C107" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="4"/>
@@ -5495,35 +5609,35 @@
     </row>
     <row r="108" spans="3:10">
       <c r="C108" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="4"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I108" s="15"/>
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="3:10">
       <c r="C109" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="4"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I109" s="15"/>
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="3:10">
       <c r="C110" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="4"/>
@@ -5535,7 +5649,7 @@
     </row>
     <row r="111" spans="3:10">
       <c r="C111" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="4"/>
@@ -5547,11 +5661,11 @@
     </row>
     <row r="112" spans="3:10">
       <c r="C112" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -5561,11 +5675,11 @@
     </row>
     <row r="113" spans="3:10">
       <c r="C113" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -5575,11 +5689,11 @@
     </row>
     <row r="114" spans="3:10">
       <c r="C114" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -5589,11 +5703,11 @@
     </row>
     <row r="115" spans="3:10">
       <c r="C115" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -5603,11 +5717,11 @@
     </row>
     <row r="116" spans="3:10">
       <c r="C116" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -5617,11 +5731,11 @@
     </row>
     <row r="117" spans="3:10">
       <c r="C117" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -5631,111 +5745,111 @@
     </row>
     <row r="118" spans="3:10">
       <c r="C118" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I118" s="15"/>
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="3:10">
       <c r="C119" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="4"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="3:10">
       <c r="C120" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="4"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="3:10">
       <c r="C121" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="4"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="3:10">
       <c r="C122" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="4"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="3:10">
       <c r="C123" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="4"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="3:10">
       <c r="C124" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="4"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I124" s="15"/>
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="3:10">
       <c r="C125" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -5745,7 +5859,7 @@
     </row>
     <row r="126" spans="3:10">
       <c r="C126" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="4"/>
@@ -5757,7 +5871,7 @@
     </row>
     <row r="127" spans="3:10">
       <c r="C127" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="4"/>
@@ -5769,11 +5883,11 @@
     </row>
     <row r="128" spans="3:10">
       <c r="C128" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -5783,11 +5897,11 @@
     </row>
     <row r="129" spans="3:10">
       <c r="C129" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -5797,11 +5911,11 @@
     </row>
     <row r="130" spans="3:10">
       <c r="C130" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -5811,11 +5925,11 @@
     </row>
     <row r="131" spans="3:10">
       <c r="C131" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -5825,11 +5939,11 @@
     </row>
     <row r="132" spans="3:10">
       <c r="C132" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -6740,21 +6854,26 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"NUM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"STR"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H222">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="G6:G222">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G222">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="H6:H222">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C133">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6774,7 +6893,7 @@
   <sheetData>
     <row r="24" spans="16:16">
       <c r="P24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
+++ b/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\System\modal\prepackage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJ\シモダ\Github\System\modal\prepackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F131C00-D0D1-47DC-89F5-A511B71300ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900E689B-C53B-41BF-9AF6-ED0B3039234E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38220" yWindow="-10730" windowWidth="21780" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -1990,13 +1990,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -2017,6 +2010,13 @@
       <font>
         <color theme="5"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2059,8 +2059,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3152775" y="495300"/>
-          <a:ext cx="4105275" cy="5743575"/>
+          <a:off x="3051175" y="476250"/>
+          <a:ext cx="3952875" cy="5514975"/>
           <a:chOff x="3152775" y="495300"/>
           <a:chExt cx="4105275" cy="5743575"/>
         </a:xfrm>
@@ -3192,8 +3192,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9877425" y="4171950"/>
-          <a:ext cx="1714500" cy="2066925"/>
+          <a:off x="9521825" y="4010025"/>
+          <a:ext cx="1663700" cy="1981200"/>
           <a:chOff x="3152775" y="495300"/>
           <a:chExt cx="4105275" cy="5743575"/>
         </a:xfrm>
@@ -3878,20 +3878,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08203125" style="12" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="36.75">
+    <row r="5" spans="1:10" ht="34">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24.75">
+    <row r="13" spans="1:10" ht="25.5">
       <c r="C13" s="2" t="s">
         <v>218</v>
       </c>
@@ -4909,7 +4909,7 @@
       <c r="I60" s="15"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="3:10" ht="24.75">
+    <row r="61" spans="3:10" ht="25.5">
       <c r="C61" s="7" t="s">
         <v>89</v>
       </c>
@@ -4943,7 +4943,7 @@
       <c r="I62" s="15"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="3:10" ht="24.75">
+    <row r="63" spans="3:10" ht="25.5">
       <c r="C63" s="7" t="s">
         <v>92</v>
       </c>
@@ -5151,7 +5151,7 @@
       <c r="I76" s="15"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="3:10" ht="24.75">
+    <row r="77" spans="3:10" ht="25.5">
       <c r="C77" s="7" t="s">
         <v>115</v>
       </c>
@@ -5267,7 +5267,7 @@
       <c r="I84" s="15"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="3:10" ht="24.75">
+    <row r="85" spans="3:10" ht="25.5">
       <c r="C85" s="7" t="s">
         <v>133</v>
       </c>
@@ -6853,27 +6853,27 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C6:C133">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$G6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"NUM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"STR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G222">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H222">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C133">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6889,7 +6889,7 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="24" spans="16:16">
       <c r="P24" t="s">

--- a/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
+++ b/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJ\シモダ\Github\System\modal\prepackage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\System\modal\prepackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900E689B-C53B-41BF-9AF6-ED0B3039234E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15695939-5C23-4D26-B88E-3F12F97B5CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38220" yWindow="-10730" windowWidth="21780" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="256">
   <si>
     <t>各モーダル選択フォーム仕様書</t>
   </si>
@@ -1608,9 +1608,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>03_01_社員情報【S】</t>
-  </si>
-  <si>
     <t>大和地洋</t>
     <rPh sb="0" eb="3">
       <t>ヤマト</t>
@@ -1820,6 +1817,71 @@
     <t>入札</t>
     <rPh sb="0" eb="2">
       <t>ニュウサツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_09_単位タイプリスト「枚葉」</t>
+    <rPh sb="15" eb="17">
+      <t>マイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03_01_社員情報【S】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03_01_社員情報「タックシール担当者」</t>
+    <rPh sb="17" eb="20">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未退社　＋　タックシール担当者</t>
+    <rPh sb="0" eb="3">
+      <t>ミタイシャ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全社員情報テーブル　返すのは社員IDのほう</t>
+    <rPh sb="10" eb="11">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タックシール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09_09_単位タイプリスト「タックシール」</t>
+  </si>
+  <si>
+    <t>枚</t>
+    <rPh sb="0" eb="1">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タックシール出し用の単位</t>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2059,8 +2121,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3051175" y="476250"/>
-          <a:ext cx="3952875" cy="5514975"/>
+          <a:off x="3152775" y="495300"/>
+          <a:ext cx="4105275" cy="5743575"/>
           <a:chOff x="3152775" y="495300"/>
           <a:chExt cx="4105275" cy="5743575"/>
         </a:xfrm>
@@ -3192,8 +3254,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9521825" y="4010025"/>
-          <a:ext cx="1663700" cy="1981200"/>
+          <a:off x="9877425" y="4171950"/>
+          <a:ext cx="1714500" cy="2066925"/>
           <a:chOff x="3152775" y="495300"/>
           <a:chExt cx="4105275" cy="5743575"/>
         </a:xfrm>
@@ -3874,24 +3936,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.08203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="12" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3905,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="34">
+    <row r="5" spans="1:10" ht="36.75">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4037,212 +4099,216 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="C11" s="2"/>
+      <c r="C11" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>211</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="15">
-        <v>32</v>
+      <c r="I11" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="C12" s="2" t="s">
-        <v>19</v>
+      <c r="C12" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="15">
+        <v>32</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="25.5">
-      <c r="C13" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24.75">
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="4" t="s">
-        <v>23</v>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>199</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="15" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="C15" s="11" t="s">
-        <v>146</v>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>222</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="C16" s="2" t="s">
-        <v>24</v>
+      <c r="C16" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I16" s="15" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="3:10">
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="16" t="s">
-        <v>223</v>
+      <c r="I17" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="3:10">
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>226</v>
+        <v>26</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="11" t="s">
-        <v>146</v>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -4255,16 +4321,16 @@
         <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="3:10">
@@ -4277,16 +4343,16 @@
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="3:10">
@@ -4299,16 +4365,16 @@
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="3:10">
@@ -4321,16 +4387,16 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -4343,151 +4409,161 @@
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="3:10">
-      <c r="C25" s="2" t="s">
-        <v>236</v>
+      <c r="C25" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I27" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
-      <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="J27" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="3:10">
       <c r="C28" s="2" t="s">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>246</v>
+        <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I28" s="15">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="3:10">
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="G29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I29" s="15">
+        <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="3:10">
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="2"/>
+      <c r="I30" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4497,11 +4573,11 @@
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4511,11 +4587,11 @@
     </row>
     <row r="33" spans="3:10">
       <c r="C33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4525,30 +4601,30 @@
     </row>
     <row r="34" spans="3:10">
       <c r="C34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="15"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="3:10">
-      <c r="C35" s="11" t="s">
-        <v>146</v>
+      <c r="C35" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="2"/>
@@ -4562,7 +4638,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="2"/>
@@ -4576,32 +4652,32 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="3:10">
-      <c r="C38" s="2" t="s">
-        <v>59</v>
+      <c r="C38" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I38" s="15"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="3:10">
       <c r="C39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -4611,30 +4687,34 @@
     </row>
     <row r="40" spans="3:10">
       <c r="C40" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="H40" s="2"/>
       <c r="I40" s="15"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="3:10">
-      <c r="C41" s="11" t="s">
-        <v>146</v>
+      <c r="C41" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="E41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="H41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="2"/>
@@ -4648,7 +4728,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="2"/>
@@ -4662,77 +4742,85 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="3:10">
-      <c r="C44" s="2" t="s">
-        <v>65</v>
+      <c r="C44" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I44" s="15"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="3:10">
-      <c r="C45" s="2" t="s">
-        <v>67</v>
+      <c r="C45" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="15"/>
+        <v>255</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>254</v>
+      </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="3:10">
       <c r="C46" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="H46" s="2"/>
       <c r="I46" s="15"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="3:10">
-      <c r="C47" s="11" t="s">
-        <v>146</v>
+      <c r="C47" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D47" s="2"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H47" s="2"/>
       <c r="I47" s="15"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="3:10">
-      <c r="C48" s="11" t="s">
-        <v>146</v>
+      <c r="C48" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="2"/>
@@ -4746,148 +4834,148 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="3:10">
-      <c r="C50" s="2" t="s">
-        <v>71</v>
+      <c r="C50" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="I50" s="15"/>
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="3:10">
-      <c r="C51" s="2" t="s">
-        <v>73</v>
+      <c r="C51" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="E51" s="4"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="3:10">
-      <c r="C52" s="11" t="s">
-        <v>146</v>
+      <c r="C52" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H52" s="2"/>
       <c r="I52" s="15"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="3:10">
       <c r="C53" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I53" s="15"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="3:10">
-      <c r="C54" s="2" t="s">
-        <v>79</v>
+      <c r="C54" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D54" s="2"/>
-      <c r="E54" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="3:10">
-      <c r="C55" s="11" t="s">
-        <v>146</v>
+      <c r="C55" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D55" s="2"/>
-      <c r="E55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H55" s="2"/>
       <c r="I55" s="15"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="3:10">
-      <c r="C56" s="11" t="s">
-        <v>146</v>
+      <c r="C56" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="3:10">
-      <c r="C57" s="2" t="s">
-        <v>81</v>
+      <c r="C57" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="E57" s="4"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I57" s="15"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="3:10">
-      <c r="C58" s="2" t="s">
-        <v>84</v>
+      <c r="C58" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="I58" s="15"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="3:10">
       <c r="C59" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -4897,11 +4985,11 @@
     </row>
     <row r="60" spans="3:10">
       <c r="C60" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -4909,114 +4997,114 @@
       <c r="I60" s="15"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="3:10" ht="25.5">
-      <c r="C61" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>91</v>
+    <row r="61" spans="3:10">
+      <c r="C61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="H61" s="2"/>
       <c r="I61" s="15"/>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="3:10">
-      <c r="C62" s="11" t="s">
-        <v>146</v>
+      <c r="C62" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="15"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="3:10" ht="25.5">
+    <row r="63" spans="3:10" ht="24.75">
       <c r="C63" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="3:10">
-      <c r="C64" s="2" t="s">
-        <v>97</v>
+      <c r="C64" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="E64" s="5"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="I64" s="15"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="3:10">
-      <c r="C65" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="4" t="s">
-        <v>99</v>
+    <row r="65" spans="3:10" ht="24.75">
+      <c r="C65" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="H65" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="3:10">
-      <c r="C66" s="11" t="s">
-        <v>146</v>
+      <c r="C66" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H66" s="2"/>
       <c r="I66" s="15"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="3:10">
-      <c r="C67" s="11" t="s">
-        <v>146</v>
+      <c r="C67" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="2"/>
@@ -5030,23 +5118,21 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="3:10">
-      <c r="C69" s="2" t="s">
-        <v>102</v>
+      <c r="C69" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D69" s="2"/>
-      <c r="E69" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="E69" s="4"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="2"/>
@@ -5060,122 +5146,120 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="3:10">
       <c r="C71" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="H71" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I71" s="15"/>
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="3:10">
-      <c r="C72" s="2" t="s">
-        <v>105</v>
+      <c r="C72" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="E72" s="4"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="H72" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="I72" s="15"/>
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="3:10">
       <c r="C73" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="H73" s="2"/>
       <c r="I73" s="15"/>
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="3:10">
-      <c r="C74" s="11" t="s">
-        <v>146</v>
+      <c r="C74" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D74" s="2"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="H74" s="2"/>
       <c r="I74" s="15"/>
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="3:10">
       <c r="C75" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="H75" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I75" s="15"/>
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="3:10">
-      <c r="C76" s="2" t="s">
-        <v>113</v>
+      <c r="C76" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="H76" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="I76" s="15"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="3:10" ht="25.5">
-      <c r="C77" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>116</v>
+    <row r="77" spans="3:10">
+      <c r="C77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="H77" s="2"/>
       <c r="I77" s="15"/>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="3:10">
       <c r="C78" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -5183,27 +5267,31 @@
       <c r="I78" s="15"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="3:10">
-      <c r="C79" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="4" t="s">
-        <v>121</v>
+    <row r="79" spans="3:10" ht="24.75">
+      <c r="C79" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="H79" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="I79" s="15"/>
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="3:10">
       <c r="C80" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -5213,11 +5301,11 @@
     </row>
     <row r="81" spans="3:10">
       <c r="C81" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -5227,11 +5315,11 @@
     </row>
     <row r="82" spans="3:10">
       <c r="C82" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -5241,11 +5329,11 @@
     </row>
     <row r="83" spans="3:10">
       <c r="C83" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -5255,11 +5343,11 @@
     </row>
     <row r="84" spans="3:10">
       <c r="C84" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -5267,31 +5355,27 @@
       <c r="I84" s="15"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="3:10" ht="25.5">
-      <c r="C85" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>134</v>
+    <row r="85" spans="3:10">
+      <c r="C85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="H85" s="2"/>
       <c r="I85" s="15"/>
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="3:10">
       <c r="C86" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -5299,50 +5383,50 @@
       <c r="I86" s="15"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="3:10">
+    <row r="87" spans="3:10" ht="24.75">
       <c r="C87" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E87" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I87" s="15"/>
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="3:10">
-      <c r="C88" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E88" s="4"/>
+      <c r="C88" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="H88" s="2"/>
       <c r="I88" s="15"/>
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="3:10">
-      <c r="C89" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>146</v>
+      <c r="C89" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I89" s="15"/>
       <c r="J89" s="2"/>
@@ -5358,87 +5442,87 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="3:10">
-      <c r="C91" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>137</v>
+      <c r="C91" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I91" s="15"/>
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="3:10">
-      <c r="C92" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>148</v>
+      <c r="C92" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I92" s="15"/>
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="3:10">
-      <c r="C93" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="C93" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="4"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I93" s="15"/>
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="3:10">
-      <c r="C94" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>146</v>
+      <c r="C94" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I94" s="15"/>
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="3:10">
-      <c r="C95" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E95" s="4"/>
+      <c r="C95" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="2"/>
@@ -5454,7 +5538,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I96" s="15"/>
       <c r="J96" s="2"/>
@@ -5470,7 +5554,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I97" s="15"/>
       <c r="J97" s="2"/>
@@ -5486,94 +5570,102 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I98" s="15"/>
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="3:10">
-      <c r="C99" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="C99" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99" s="4"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="H99" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="I99" s="15"/>
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="3:10">
-      <c r="C100" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="C100" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="4"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="H100" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I100" s="15"/>
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="3:10">
       <c r="C101" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D101" s="2"/>
-      <c r="E101" s="4"/>
+      <c r="E101" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H101" s="2"/>
       <c r="I101" s="15"/>
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="3:10">
-      <c r="C102" s="8" t="s">
-        <v>146</v>
+      <c r="C102" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D102" s="2"/>
-      <c r="E102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="H102" s="2"/>
       <c r="I102" s="15"/>
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="3:10">
       <c r="C103" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="4"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="H103" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I103" s="15"/>
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="3:10">
-      <c r="C104" s="2" t="s">
-        <v>163</v>
+      <c r="C104" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="H104" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="I104" s="15"/>
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="3:10">
       <c r="C105" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="4"/>
@@ -5585,7 +5677,7 @@
     </row>
     <row r="106" spans="3:10">
       <c r="C106" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="4"/>
@@ -5597,7 +5689,7 @@
     </row>
     <row r="107" spans="3:10">
       <c r="C107" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="4"/>
@@ -5609,64 +5701,62 @@
     </row>
     <row r="108" spans="3:10">
       <c r="C108" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="4"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H108" s="2"/>
       <c r="I108" s="15"/>
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="3:10">
-      <c r="C109" s="8" t="s">
-        <v>146</v>
+      <c r="C109" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="4"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="H109" s="2"/>
       <c r="I109" s="15"/>
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="3:10">
       <c r="C110" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="4"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+      <c r="H110" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I110" s="15"/>
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="3:10">
-      <c r="C111" s="2" t="s">
-        <v>168</v>
+      <c r="C111" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="4"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="H111" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="I111" s="15"/>
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="3:10">
-      <c r="C112" s="10" t="s">
-        <v>169</v>
+      <c r="C112" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="9" t="s">
-        <v>170</v>
-      </c>
+      <c r="E112" s="4"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
@@ -5674,13 +5764,11 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="3:10">
-      <c r="C113" s="10" t="s">
-        <v>171</v>
+      <c r="C113" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="9" t="s">
-        <v>170</v>
-      </c>
+      <c r="E113" s="4"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -5688,8 +5776,8 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="3:10">
-      <c r="C114" s="2" t="s">
-        <v>172</v>
+      <c r="C114" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="9" t="s">
@@ -5702,12 +5790,12 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="3:10">
-      <c r="C115" s="2" t="s">
-        <v>174</v>
+      <c r="C115" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D115" s="2"/>
-      <c r="E115" s="4" t="s">
-        <v>175</v>
+      <c r="E115" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -5717,11 +5805,11 @@
     </row>
     <row r="116" spans="3:10">
       <c r="C116" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D116" s="2"/>
-      <c r="E116" s="4" t="s">
-        <v>176</v>
+      <c r="E116" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -5731,11 +5819,11 @@
     </row>
     <row r="117" spans="3:10">
       <c r="C117" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -5745,44 +5833,44 @@
     </row>
     <row r="118" spans="3:10">
       <c r="C118" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="H118" s="2"/>
       <c r="I118" s="15"/>
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="3:10">
-      <c r="C119" s="11" t="s">
-        <v>146</v>
+      <c r="C119" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="D119" s="2"/>
-      <c r="E119" s="4"/>
+      <c r="E119" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="H119" s="2"/>
       <c r="I119" s="15"/>
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="3:10">
-      <c r="C120" s="11" t="s">
-        <v>146</v>
+      <c r="C120" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D120" s="2"/>
-      <c r="E120" s="4"/>
+      <c r="E120" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="2"/>
@@ -5796,7 +5884,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="2"/>
@@ -5810,7 +5898,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="2"/>
@@ -5824,7 +5912,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="2"/>
@@ -5838,43 +5926,47 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I124" s="15"/>
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="3:10">
-      <c r="C125" s="2" t="s">
-        <v>188</v>
+      <c r="C125" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D125" s="2"/>
-      <c r="E125" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="E125" s="4"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
+      <c r="H125" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I125" s="15"/>
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="3:10">
-      <c r="C126" s="2" t="s">
-        <v>190</v>
+      <c r="C126" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="4"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+      <c r="H126" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="I126" s="15"/>
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="3:10">
       <c r="C127" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="4"/>
+      <c r="E127" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -5883,12 +5975,10 @@
     </row>
     <row r="128" spans="3:10">
       <c r="C128" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="4" t="s">
-        <v>197</v>
-      </c>
+      <c r="E128" s="4"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -5897,12 +5987,10 @@
     </row>
     <row r="129" spans="3:10">
       <c r="C129" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D129" s="2"/>
-      <c r="E129" s="4" t="s">
-        <v>196</v>
-      </c>
+      <c r="E129" s="4"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -5911,11 +5999,11 @@
     </row>
     <row r="130" spans="3:10">
       <c r="C130" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -5925,11 +6013,11 @@
     </row>
     <row r="131" spans="3:10">
       <c r="C131" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -5939,11 +6027,11 @@
     </row>
     <row r="132" spans="3:10">
       <c r="C132" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -5952,9 +6040,13 @@
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="3:10">
-      <c r="C133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="D133" s="2"/>
-      <c r="E133" s="4"/>
+      <c r="E133" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
@@ -5962,9 +6054,13 @@
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="3:10">
-      <c r="C134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="D134" s="2"/>
-      <c r="E134" s="4"/>
+      <c r="E134" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
@@ -6851,9 +6947,29 @@
       <c r="I222" s="15"/>
       <c r="J222" s="2"/>
     </row>
+    <row r="223" spans="3:10">
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="15"/>
+      <c r="J223" s="2"/>
+    </row>
+    <row r="224" spans="3:10">
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="15"/>
+      <c r="J224" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C6:C133">
+  <conditionalFormatting sqref="C6:C135">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
@@ -6866,12 +6982,12 @@
       <formula>"STR"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G222">
+  <conditionalFormatting sqref="G6:G224">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H222">
+  <conditionalFormatting sqref="H6:H224">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -6889,11 +7005,11 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="24" spans="16:16">
       <c r="P24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
+++ b/System/modal/prepackage/各モーダル選択フォーム仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\System\modal\prepackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15695939-5C23-4D26-B88E-3F12F97B5CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3676E81-CBF3-4D05-A51C-B9D191236443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="259">
   <si>
     <t>各モーダル選択フォーム仕様書</t>
   </si>
@@ -1883,6 +1883,27 @@
     <rPh sb="10" eb="12">
       <t>タンイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01_01_HolidayList</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シモダのお休み日を定義しています。</t>
+    <rPh sb="5" eb="6">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DAY</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3936,11 +3957,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J224"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3995,71 +4016,65 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="C7" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>207</v>
+        <v>12</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.41666666666666669</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="C8" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>10</v>
@@ -4067,21 +4082,21 @@
     </row>
     <row r="9" spans="1:10">
       <c r="C9" s="2" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="15" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>10</v>
@@ -4089,46 +4104,46 @@
     </row>
     <row r="10" spans="1:10">
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="15" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="C11" s="11" t="s">
-        <v>146</v>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="15" t="s">
         <v>213</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4137,197 +4152,197 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>211</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="15">
-        <v>32</v>
+      <c r="I12" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="C13" s="2" t="s">
-        <v>19</v>
+      <c r="C13" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="15" t="s">
-        <v>215</v>
+      <c r="I13" s="15">
+        <v>32</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="24.75">
+    <row r="14" spans="1:10">
       <c r="C14" s="2" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="5" t="s">
-        <v>21</v>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="24.75">
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="4" t="s">
-        <v>23</v>
+      <c r="E15" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>199</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="15" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="C16" s="11" t="s">
-        <v>146</v>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="2" t="s">
-        <v>24</v>
+      <c r="C17" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I17" s="15" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:10">
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="16" t="s">
-        <v>222</v>
+      <c r="I18" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="3:10">
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>225</v>
+        <v>26</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="11" t="s">
-        <v>146</v>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>223</v>
@@ -4343,13 +4358,13 @@
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>223</v>
@@ -4365,13 +4380,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>223</v>
@@ -4387,13 +4402,13 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>223</v>
@@ -4409,13 +4424,13 @@
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>223</v>
@@ -4431,81 +4446,81 @@
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="26" spans="3:10">
-      <c r="C26" s="2" t="s">
-        <v>235</v>
+      <c r="C26" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="27" spans="3:10">
-      <c r="C27" s="11" t="s">
-        <v>146</v>
+      <c r="C27" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>237</v>
+        <v>75</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="28" spans="3:10">
-      <c r="C28" s="2" t="s">
-        <v>38</v>
+      <c r="C28" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="2" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>223</v>
@@ -4513,23 +4528,21 @@
     </row>
     <row r="29" spans="3:10">
       <c r="C29" s="2" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I29" s="15">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>223</v>
@@ -4537,21 +4550,23 @@
     </row>
     <row r="30" spans="3:10">
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I30" s="15">
+        <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>223</v>
@@ -4559,25 +4574,33 @@
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2"/>
+      <c r="I31" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4587,11 +4610,11 @@
     </row>
     <row r="33" spans="3:10">
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4601,11 +4624,11 @@
     </row>
     <row r="34" spans="3:10">
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4615,30 +4638,30 @@
     </row>
     <row r="35" spans="3:10">
       <c r="C35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="15"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="3:10">
-      <c r="C36" s="11" t="s">
-        <v>146</v>
+      <c r="C36" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="2"/>
@@ -4652,7 +4675,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="2"/>
@@ -4666,32 +4689,32 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="3:10">
-      <c r="C39" s="2" t="s">
-        <v>59</v>
+      <c r="C39" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I39" s="15"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="3:10">
       <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4701,34 +4724,34 @@
     </row>
     <row r="41" spans="3:10">
       <c r="C41" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="15"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="3:10">
-      <c r="C42" s="11" t="s">
-        <v>146</v>
+      <c r="C42" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="E42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="H42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="2"/>
@@ -4742,7 +4765,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="2"/>
@@ -4756,7 +4779,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="2"/>
@@ -4766,44 +4789,44 @@
         <v>146</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>254</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="I45" s="15"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="3:10">
-      <c r="C46" s="2" t="s">
-        <v>65</v>
+      <c r="C46" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="15"/>
+        <v>255</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>254</v>
+      </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="3:10">
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -4813,28 +4836,28 @@
     </row>
     <row r="48" spans="3:10">
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="H48" s="2"/>
       <c r="I48" s="15"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="3:10">
-      <c r="C49" s="11" t="s">
-        <v>146</v>
+      <c r="C49" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="4"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="2"/>
@@ -4848,7 +4871,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="2"/>
@@ -4862,95 +4885,95 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="3:10">
-      <c r="C52" s="2" t="s">
-        <v>71</v>
+      <c r="C52" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="I52" s="15"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="3:10">
       <c r="C53" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H53" s="2"/>
       <c r="I53" s="15"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="3:10">
-      <c r="C54" s="11" t="s">
-        <v>146</v>
+      <c r="C54" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D54" s="2"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="3:10">
-      <c r="C55" s="2" t="s">
-        <v>76</v>
+      <c r="C55" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D55" s="2"/>
-      <c r="E55" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I55" s="15"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="3:10">
       <c r="C56" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H56" s="2"/>
       <c r="I56" s="15"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="3:10">
-      <c r="C57" s="11" t="s">
-        <v>146</v>
+      <c r="C57" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="2"/>
@@ -4964,32 +4987,32 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="3:10">
-      <c r="C59" s="2" t="s">
-        <v>81</v>
+      <c r="C59" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="E59" s="4"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="I59" s="15"/>
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="3:10">
       <c r="C60" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -4999,11 +5022,11 @@
     </row>
     <row r="61" spans="3:10">
       <c r="C61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -5013,11 +5036,11 @@
     </row>
     <row r="62" spans="3:10">
       <c r="C62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -5025,100 +5048,100 @@
       <c r="I62" s="15"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="3:10" ht="24.75">
-      <c r="C63" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>91</v>
+    <row r="63" spans="3:10">
+      <c r="C63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="H63" s="2"/>
       <c r="I63" s="15"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="3:10">
-      <c r="C64" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="5"/>
+    <row r="64" spans="3:10" ht="24.75">
+      <c r="C64" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="3:10" ht="24.75">
-      <c r="C65" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>93</v>
-      </c>
+    <row r="65" spans="3:10">
+      <c r="C65" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="3:10">
-      <c r="C66" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="4" t="s">
-        <v>96</v>
+    <row r="66" spans="3:10" ht="24.75">
+      <c r="C66" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="G66" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I66" s="15"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="3:10">
       <c r="C67" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="H67" s="2"/>
       <c r="I67" s="15"/>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="3:10">
-      <c r="C68" s="11" t="s">
-        <v>146</v>
+      <c r="C68" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="2"/>
@@ -5132,7 +5155,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="2"/>
@@ -5146,62 +5169,62 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="3:10">
-      <c r="C71" s="2" t="s">
-        <v>102</v>
+      <c r="C71" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D71" s="2"/>
-      <c r="E71" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="E71" s="4"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="3:10">
-      <c r="C72" s="11" t="s">
-        <v>146</v>
+      <c r="C72" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="3:10">
-      <c r="C73" s="2" t="s">
-        <v>103</v>
+      <c r="C73" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D73" s="2"/>
-      <c r="E73" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="E73" s="4"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="I73" s="15"/>
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="3:10">
       <c r="C74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -5211,55 +5234,55 @@
     </row>
     <row r="75" spans="3:10">
       <c r="C75" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="H75" s="2"/>
       <c r="I75" s="15"/>
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="3:10">
-      <c r="C76" s="11" t="s">
-        <v>146</v>
+      <c r="C76" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="3:10">
-      <c r="C77" s="2" t="s">
-        <v>111</v>
+      <c r="C77" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="E77" s="4"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="H77" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="I77" s="15"/>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="3:10">
       <c r="C78" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -5267,45 +5290,45 @@
       <c r="I78" s="15"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="3:10" ht="24.75">
-      <c r="C79" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>116</v>
+    <row r="79" spans="3:10">
+      <c r="C79" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="H79" s="2"/>
       <c r="I79" s="15"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="3:10">
-      <c r="C80" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="4" t="s">
-        <v>119</v>
+    <row r="80" spans="3:10" ht="24.75">
+      <c r="C80" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="H80" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="I80" s="15"/>
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="3:10">
       <c r="C81" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -5315,11 +5338,11 @@
     </row>
     <row r="82" spans="3:10">
       <c r="C82" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -5329,11 +5352,11 @@
     </row>
     <row r="83" spans="3:10">
       <c r="C83" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -5343,11 +5366,11 @@
     </row>
     <row r="84" spans="3:10">
       <c r="C84" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -5357,11 +5380,11 @@
     </row>
     <row r="85" spans="3:10">
       <c r="C85" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -5371,11 +5394,11 @@
     </row>
     <row r="86" spans="3:10">
       <c r="C86" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -5383,66 +5406,64 @@
       <c r="I86" s="15"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="3:10" ht="24.75">
-      <c r="C87" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>134</v>
+    <row r="87" spans="3:10">
+      <c r="C87" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="H87" s="2"/>
       <c r="I87" s="15"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="3:10">
-      <c r="C88" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="4" t="s">
-        <v>135</v>
+    <row r="88" spans="3:10" ht="24.75">
+      <c r="C88" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="H88" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="I88" s="15"/>
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="3:10">
-      <c r="C89" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" s="4"/>
+      <c r="C89" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="H89" s="2"/>
       <c r="I89" s="15"/>
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="3:10">
-      <c r="C90" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>146</v>
+      <c r="C90" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="2"/>
@@ -5458,7 +5479,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I91" s="15"/>
       <c r="J91" s="2"/>
@@ -5474,33 +5495,33 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I92" s="15"/>
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="3:10">
-      <c r="C93" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>137</v>
+      <c r="C93" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I93" s="15"/>
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="3:10">
       <c r="C94" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
@@ -5512,33 +5533,33 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="3:10">
-      <c r="C95" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="C95" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E95" s="4"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="3:10">
-      <c r="C96" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E96" s="4"/>
+      <c r="C96" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I96" s="15"/>
       <c r="J96" s="2"/>
@@ -5554,7 +5575,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I97" s="15"/>
       <c r="J97" s="2"/>
@@ -5570,7 +5591,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I98" s="15"/>
       <c r="J98" s="2"/>
@@ -5586,7 +5607,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I99" s="15"/>
       <c r="J99" s="2"/>
@@ -5602,32 +5623,34 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I100" s="15"/>
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="3:10">
-      <c r="C101" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="C101" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" s="4"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="H101" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I101" s="15"/>
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="3:10">
       <c r="C102" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -5637,47 +5660,49 @@
     </row>
     <row r="103" spans="3:10">
       <c r="C103" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D103" s="2"/>
-      <c r="E103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H103" s="2"/>
       <c r="I103" s="15"/>
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="3:10">
-      <c r="C104" s="8" t="s">
-        <v>146</v>
+      <c r="C104" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I104" s="15"/>
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="3:10">
-      <c r="C105" s="2" t="s">
-        <v>162</v>
+      <c r="C105" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="4"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+      <c r="H105" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="I105" s="15"/>
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="3:10">
       <c r="C106" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="4"/>
@@ -5689,7 +5714,7 @@
     </row>
     <row r="107" spans="3:10">
       <c r="C107" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="4"/>
@@ -5701,7 +5726,7 @@
     </row>
     <row r="108" spans="3:10">
       <c r="C108" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="4"/>
@@ -5713,7 +5738,7 @@
     </row>
     <row r="109" spans="3:10">
       <c r="C109" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="4"/>
@@ -5731,41 +5756,41 @@
       <c r="E110" s="4"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H110" s="2"/>
       <c r="I110" s="15"/>
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="3:10">
-      <c r="C111" s="8" t="s">
-        <v>146</v>
+      <c r="C111" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="4"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="3:10">
-      <c r="C112" s="2" t="s">
-        <v>167</v>
+      <c r="C112" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="4"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
+      <c r="H112" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="I112" s="15"/>
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="3:10">
       <c r="C113" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="4"/>
@@ -5776,13 +5801,11 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="3:10">
-      <c r="C114" s="10" t="s">
-        <v>169</v>
+      <c r="C114" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="9" t="s">
-        <v>170</v>
-      </c>
+      <c r="E114" s="4"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -5791,7 +5814,7 @@
     </row>
     <row r="115" spans="3:10">
       <c r="C115" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="9" t="s">
@@ -5804,8 +5827,8 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="3:10">
-      <c r="C116" s="2" t="s">
-        <v>172</v>
+      <c r="C116" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="9" t="s">
@@ -5819,11 +5842,11 @@
     </row>
     <row r="117" spans="3:10">
       <c r="C117" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D117" s="2"/>
-      <c r="E117" s="4" t="s">
-        <v>175</v>
+      <c r="E117" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -5833,11 +5856,11 @@
     </row>
     <row r="118" spans="3:10">
       <c r="C118" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -5847,11 +5870,11 @@
     </row>
     <row r="119" spans="3:10">
       <c r="C119" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -5861,30 +5884,30 @@
     </row>
     <row r="120" spans="3:10">
       <c r="C120" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-      <c r="H120" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="H120" s="2"/>
       <c r="I120" s="15"/>
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="3:10">
-      <c r="C121" s="11" t="s">
-        <v>146</v>
+      <c r="C121" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D121" s="2"/>
-      <c r="E121" s="4"/>
+      <c r="E121" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="2"/>
@@ -5898,7 +5921,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="2"/>
@@ -5912,7 +5935,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="2"/>
@@ -5926,7 +5949,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I124" s="15"/>
       <c r="J124" s="2"/>
@@ -5940,7 +5963,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I125" s="15"/>
       <c r="J125" s="2"/>
@@ -5954,31 +5977,33 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I126" s="15"/>
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="3:10">
-      <c r="C127" s="2" t="s">
-        <v>188</v>
+      <c r="C127" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="E127" s="4"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
+      <c r="H127" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="I127" s="15"/>
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="3:10">
       <c r="C128" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="4"/>
+      <c r="E128" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -5987,7 +6012,7 @@
     </row>
     <row r="129" spans="3:10">
       <c r="C129" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="4"/>
@@ -5999,12 +6024,10 @@
     </row>
     <row r="130" spans="3:10">
       <c r="C130" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="E130" s="4" t="s">
-        <v>197</v>
-      </c>
+      <c r="E130" s="4"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
@@ -6013,11 +6036,11 @@
     </row>
     <row r="131" spans="3:10">
       <c r="C131" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -6027,11 +6050,11 @@
     </row>
     <row r="132" spans="3:10">
       <c r="C132" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -6041,11 +6064,11 @@
     </row>
     <row r="133" spans="3:10">
       <c r="C133" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -6055,11 +6078,11 @@
     </row>
     <row r="134" spans="3:10">
       <c r="C134" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -6068,9 +6091,13 @@
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="3:10">
-      <c r="C135" s="2"/>
+      <c r="C135" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="D135" s="2"/>
-      <c r="E135" s="4"/>
+      <c r="E135" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
@@ -6967,9 +6994,19 @@
       <c r="I224" s="15"/>
       <c r="J224" s="2"/>
     </row>
+    <row r="225" spans="3:10">
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="15"/>
+      <c r="J225" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C6:C135">
+  <conditionalFormatting sqref="C6:C136">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>$G6&lt;&gt;""</formula>
     </cfRule>
@@ -6982,12 +7019,12 @@
       <formula>"STR"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G224">
+  <conditionalFormatting sqref="G6:G225">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H224">
+  <conditionalFormatting sqref="H6:H225">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
